--- a/Vorstudie-Data/results-with-robot-wo-safety.xlsx
+++ b/Vorstudie-Data/results-with-robot-wo-safety.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Vorstudie-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF5D2B6-C33B-DC41-B70A-8E9F4A423922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC4E87A-B206-CA45-8B3A-7376B81D7324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="19200" windowHeight="23500" xr2:uid="{697A34F8-945B-AC40-97EB-226C6781B788}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="493">
   <si>
     <t>id. Antwort ID</t>
   </si>
@@ -1365,6 +1365,159 @@
   </si>
   <si>
     <t>ER06AR05</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:42:42</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:30:45</t>
+  </si>
+  <si>
+    <t>ER07UE17</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:24:07</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:12:31</t>
+  </si>
+  <si>
+    <t>UR04IO03</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:34:47</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:30:16</t>
+  </si>
+  <si>
+    <t>CAWO307</t>
+  </si>
+  <si>
+    <t>2024-07-04 18:06:16</t>
+  </si>
+  <si>
+    <t>2024-07-04 17:54:49</t>
+  </si>
+  <si>
+    <t>TZ09CH25</t>
+  </si>
+  <si>
+    <t>2024-07-04 19:12:00</t>
+  </si>
+  <si>
+    <t>2024-07-04 19:04:45</t>
+  </si>
+  <si>
+    <t>CH4US24</t>
+  </si>
+  <si>
+    <t>2024-07-05 01:13:09</t>
+  </si>
+  <si>
+    <t>2024-07-05 01:08:31</t>
+  </si>
+  <si>
+    <t>RR06LG06</t>
+  </si>
+  <si>
+    <t>2024-07-06 20:01:48</t>
+  </si>
+  <si>
+    <t>2024-07-06 19:51:05</t>
+  </si>
+  <si>
+    <t>NN09ES02</t>
+  </si>
+  <si>
+    <t>2024-07-07 22:59:47</t>
+  </si>
+  <si>
+    <t>2024-07-07 22:50:21</t>
+  </si>
+  <si>
+    <t>PE05RE11</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:15:29</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:08:48</t>
+  </si>
+  <si>
+    <t>ER05AS22</t>
+  </si>
+  <si>
+    <t>2024-07-01 23:32:59</t>
+  </si>
+  <si>
+    <t>2024-07-01 23:23:13</t>
+  </si>
+  <si>
+    <t>H34VY</t>
+  </si>
+  <si>
+    <t>2024-07-02 13:25:58</t>
+  </si>
+  <si>
+    <t>2024-07-02 12:01:11</t>
+  </si>
+  <si>
+    <t>KA06SZ19</t>
+  </si>
+  <si>
+    <t>2024-07-02 14:09:28</t>
+  </si>
+  <si>
+    <t>2024-07-02 14:01:43</t>
+  </si>
+  <si>
+    <t>NN06US28</t>
+  </si>
+  <si>
+    <t>2024-07-02 22:30:41</t>
+  </si>
+  <si>
+    <t>2024-07-02 22:25:21</t>
+  </si>
+  <si>
+    <t>NG6NZ26</t>
+  </si>
+  <si>
+    <t>2024-07-03 21:51:39</t>
+  </si>
+  <si>
+    <t>2024-07-03 21:39:50</t>
+  </si>
+  <si>
+    <t>PA08LF19</t>
+  </si>
+  <si>
+    <t>2024-07-05 14:12:49</t>
+  </si>
+  <si>
+    <t>2024-07-05 14:05:09</t>
+  </si>
+  <si>
+    <t>LL06US20</t>
+  </si>
+  <si>
+    <t>2024-07-05 14:16:00</t>
+  </si>
+  <si>
+    <t>2024-07-05 14:07:07</t>
+  </si>
+  <si>
+    <t>CK09AS17</t>
+  </si>
+  <si>
+    <t>2024-07-07 15:54:30</t>
+  </si>
+  <si>
+    <t>2024-07-07 15:49:13</t>
+  </si>
+  <si>
+    <t>FD05DF09</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A8901A-F034-4C42-B93D-092A0FE1729B}">
-  <dimension ref="A1:EY89"/>
+  <dimension ref="A1:EY106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DM47" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="ED81" sqref="ED81"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37246,6 +37399,7327 @@
         <v>20.77</v>
       </c>
     </row>
+    <row r="90" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>442</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90">
+        <v>895160321</v>
+      </c>
+      <c r="F90" t="s">
+        <v>443</v>
+      </c>
+      <c r="G90" t="s">
+        <v>442</v>
+      </c>
+      <c r="H90" t="s">
+        <v>162</v>
+      </c>
+      <c r="I90" t="s">
+        <v>444</v>
+      </c>
+      <c r="J90" t="s">
+        <v>113</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>2</v>
+      </c>
+      <c r="P90">
+        <v>3</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>3</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>3</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="W90">
+        <v>3</v>
+      </c>
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>3</v>
+      </c>
+      <c r="Z90">
+        <v>4</v>
+      </c>
+      <c r="AA90">
+        <v>2</v>
+      </c>
+      <c r="AB90">
+        <v>4</v>
+      </c>
+      <c r="AC90">
+        <v>4</v>
+      </c>
+      <c r="AD90">
+        <v>3</v>
+      </c>
+      <c r="AE90">
+        <v>3</v>
+      </c>
+      <c r="AF90">
+        <v>3</v>
+      </c>
+      <c r="AG90">
+        <v>3</v>
+      </c>
+      <c r="AH90">
+        <v>3</v>
+      </c>
+      <c r="AI90">
+        <v>3</v>
+      </c>
+      <c r="AJ90">
+        <v>3</v>
+      </c>
+      <c r="AK90">
+        <v>4</v>
+      </c>
+      <c r="AL90">
+        <v>3</v>
+      </c>
+      <c r="AM90">
+        <v>3</v>
+      </c>
+      <c r="AN90">
+        <v>3</v>
+      </c>
+      <c r="AO90">
+        <v>3</v>
+      </c>
+      <c r="AP90">
+        <v>3</v>
+      </c>
+      <c r="AQ90">
+        <v>3</v>
+      </c>
+      <c r="AR90">
+        <v>3</v>
+      </c>
+      <c r="AS90">
+        <v>3</v>
+      </c>
+      <c r="AT90">
+        <v>4</v>
+      </c>
+      <c r="AU90">
+        <v>4</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>2</v>
+      </c>
+      <c r="AZ90">
+        <v>3</v>
+      </c>
+      <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
+        <v>3</v>
+      </c>
+      <c r="BD90">
+        <v>3</v>
+      </c>
+      <c r="BE90">
+        <v>3</v>
+      </c>
+      <c r="BF90">
+        <v>3</v>
+      </c>
+      <c r="BG90">
+        <v>3</v>
+      </c>
+      <c r="BH90">
+        <v>3</v>
+      </c>
+      <c r="BI90">
+        <v>3</v>
+      </c>
+      <c r="BJ90">
+        <v>4</v>
+      </c>
+      <c r="BK90">
+        <v>4</v>
+      </c>
+      <c r="BL90">
+        <v>4</v>
+      </c>
+      <c r="BM90">
+        <v>4</v>
+      </c>
+      <c r="BN90">
+        <v>3</v>
+      </c>
+      <c r="BO90">
+        <v>2</v>
+      </c>
+      <c r="BP90">
+        <v>2</v>
+      </c>
+      <c r="BQ90">
+        <v>3</v>
+      </c>
+      <c r="BR90">
+        <v>3</v>
+      </c>
+      <c r="BS90">
+        <v>2</v>
+      </c>
+      <c r="BT90">
+        <v>3</v>
+      </c>
+      <c r="BU90">
+        <v>2</v>
+      </c>
+      <c r="BV90">
+        <v>2</v>
+      </c>
+      <c r="BW90">
+        <v>3</v>
+      </c>
+      <c r="BX90">
+        <v>3</v>
+      </c>
+      <c r="BY90">
+        <v>3</v>
+      </c>
+      <c r="BZ90">
+        <v>3</v>
+      </c>
+      <c r="CA90">
+        <v>3</v>
+      </c>
+      <c r="CB90">
+        <v>3</v>
+      </c>
+      <c r="CC90">
+        <v>2</v>
+      </c>
+      <c r="CD90">
+        <v>3</v>
+      </c>
+      <c r="CE90">
+        <v>3</v>
+      </c>
+      <c r="CF90">
+        <v>3</v>
+      </c>
+      <c r="CG90">
+        <v>3</v>
+      </c>
+      <c r="CH90">
+        <v>3</v>
+      </c>
+      <c r="CI90">
+        <v>3</v>
+      </c>
+      <c r="CJ90">
+        <v>3</v>
+      </c>
+      <c r="CK90">
+        <v>3</v>
+      </c>
+      <c r="CL90">
+        <v>3</v>
+      </c>
+      <c r="CM90">
+        <v>1</v>
+      </c>
+      <c r="CN90">
+        <v>2</v>
+      </c>
+      <c r="CO90">
+        <v>1</v>
+      </c>
+      <c r="CP90">
+        <v>2</v>
+      </c>
+      <c r="CQ90">
+        <v>3</v>
+      </c>
+      <c r="CR90">
+        <v>3</v>
+      </c>
+      <c r="CS90">
+        <v>2</v>
+      </c>
+      <c r="CT90">
+        <v>2</v>
+      </c>
+      <c r="CU90">
+        <v>3</v>
+      </c>
+      <c r="CV90">
+        <v>2</v>
+      </c>
+      <c r="CW90">
+        <v>3</v>
+      </c>
+      <c r="CX90">
+        <v>3</v>
+      </c>
+      <c r="CY90">
+        <v>3</v>
+      </c>
+      <c r="CZ90">
+        <v>2</v>
+      </c>
+      <c r="DA90">
+        <v>3</v>
+      </c>
+      <c r="DB90">
+        <v>2</v>
+      </c>
+      <c r="DC90">
+        <v>2</v>
+      </c>
+      <c r="DD90">
+        <v>4</v>
+      </c>
+      <c r="DE90">
+        <v>2</v>
+      </c>
+      <c r="DF90">
+        <v>4</v>
+      </c>
+      <c r="DG90">
+        <v>1</v>
+      </c>
+      <c r="DH90">
+        <v>1</v>
+      </c>
+      <c r="DI90">
+        <v>1</v>
+      </c>
+      <c r="DJ90">
+        <v>1</v>
+      </c>
+      <c r="DK90">
+        <v>1</v>
+      </c>
+      <c r="DL90">
+        <v>3</v>
+      </c>
+      <c r="DM90">
+        <v>1</v>
+      </c>
+      <c r="DN90">
+        <v>1</v>
+      </c>
+      <c r="DO90">
+        <v>3</v>
+      </c>
+      <c r="DP90">
+        <v>3</v>
+      </c>
+      <c r="DQ90">
+        <v>2</v>
+      </c>
+      <c r="DR90">
+        <v>3</v>
+      </c>
+      <c r="DS90">
+        <v>3</v>
+      </c>
+      <c r="DT90">
+        <v>2</v>
+      </c>
+      <c r="DU90">
+        <v>2</v>
+      </c>
+      <c r="DV90">
+        <v>3</v>
+      </c>
+      <c r="DW90">
+        <v>1</v>
+      </c>
+      <c r="DX90">
+        <v>3</v>
+      </c>
+      <c r="DY90">
+        <v>4</v>
+      </c>
+      <c r="DZ90">
+        <v>3</v>
+      </c>
+      <c r="EA90" t="s">
+        <v>309</v>
+      </c>
+      <c r="EB90">
+        <v>28</v>
+      </c>
+      <c r="EC90" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE90" t="s">
+        <v>311</v>
+      </c>
+      <c r="EG90">
+        <v>717.33</v>
+      </c>
+      <c r="EH90">
+        <v>75.239999999999995</v>
+      </c>
+      <c r="EK90">
+        <v>129.84</v>
+      </c>
+      <c r="EM90">
+        <v>90.12</v>
+      </c>
+      <c r="EO90">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="EQ90">
+        <v>74.11</v>
+      </c>
+      <c r="ES90">
+        <v>158.77000000000001</v>
+      </c>
+      <c r="EU90">
+        <v>94.27</v>
+      </c>
+      <c r="EW90">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>445</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91">
+        <v>202284854</v>
+      </c>
+      <c r="F91" t="s">
+        <v>446</v>
+      </c>
+      <c r="G91" t="s">
+        <v>445</v>
+      </c>
+      <c r="H91" t="s">
+        <v>162</v>
+      </c>
+      <c r="I91" t="s">
+        <v>447</v>
+      </c>
+      <c r="J91" t="s">
+        <v>113</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+      <c r="P91">
+        <v>4</v>
+      </c>
+      <c r="Q91">
+        <v>4</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>3</v>
+      </c>
+      <c r="T91">
+        <v>4</v>
+      </c>
+      <c r="U91">
+        <v>4</v>
+      </c>
+      <c r="V91">
+        <v>3</v>
+      </c>
+      <c r="W91">
+        <v>3</v>
+      </c>
+      <c r="X91">
+        <v>3</v>
+      </c>
+      <c r="Y91">
+        <v>3</v>
+      </c>
+      <c r="Z91">
+        <v>4</v>
+      </c>
+      <c r="AA91">
+        <v>3</v>
+      </c>
+      <c r="AB91">
+        <v>2</v>
+      </c>
+      <c r="AC91">
+        <v>4</v>
+      </c>
+      <c r="AD91">
+        <v>4</v>
+      </c>
+      <c r="AE91">
+        <v>2</v>
+      </c>
+      <c r="AF91">
+        <v>3</v>
+      </c>
+      <c r="AG91">
+        <v>4</v>
+      </c>
+      <c r="AH91">
+        <v>4</v>
+      </c>
+      <c r="AI91">
+        <v>2</v>
+      </c>
+      <c r="AJ91">
+        <v>4</v>
+      </c>
+      <c r="AK91">
+        <v>2</v>
+      </c>
+      <c r="AL91">
+        <v>2</v>
+      </c>
+      <c r="AM91">
+        <v>3</v>
+      </c>
+      <c r="AN91">
+        <v>2</v>
+      </c>
+      <c r="AO91">
+        <v>4</v>
+      </c>
+      <c r="AP91">
+        <v>4</v>
+      </c>
+      <c r="AQ91">
+        <v>3</v>
+      </c>
+      <c r="AR91">
+        <v>4</v>
+      </c>
+      <c r="AS91">
+        <v>4</v>
+      </c>
+      <c r="AT91">
+        <v>4</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>1</v>
+      </c>
+      <c r="AZ91">
+        <v>1</v>
+      </c>
+      <c r="BA91">
+        <v>2</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>2</v>
+      </c>
+      <c r="BD91">
+        <v>3</v>
+      </c>
+      <c r="BE91">
+        <v>2</v>
+      </c>
+      <c r="BF91">
+        <v>1</v>
+      </c>
+      <c r="BG91">
+        <v>4</v>
+      </c>
+      <c r="BH91">
+        <v>2</v>
+      </c>
+      <c r="BI91">
+        <v>2</v>
+      </c>
+      <c r="BJ91">
+        <v>2</v>
+      </c>
+      <c r="BK91">
+        <v>3</v>
+      </c>
+      <c r="BL91">
+        <v>2</v>
+      </c>
+      <c r="BM91">
+        <v>2</v>
+      </c>
+      <c r="BN91">
+        <v>3</v>
+      </c>
+      <c r="BO91">
+        <v>2</v>
+      </c>
+      <c r="BP91">
+        <v>2</v>
+      </c>
+      <c r="BQ91">
+        <v>4</v>
+      </c>
+      <c r="BR91">
+        <v>2</v>
+      </c>
+      <c r="BS91">
+        <v>3</v>
+      </c>
+      <c r="BT91">
+        <v>3</v>
+      </c>
+      <c r="BU91">
+        <v>3</v>
+      </c>
+      <c r="BV91">
+        <v>2</v>
+      </c>
+      <c r="BW91">
+        <v>3</v>
+      </c>
+      <c r="BX91">
+        <v>3</v>
+      </c>
+      <c r="BY91">
+        <v>3</v>
+      </c>
+      <c r="BZ91">
+        <v>3</v>
+      </c>
+      <c r="CA91">
+        <v>2</v>
+      </c>
+      <c r="CB91">
+        <v>1</v>
+      </c>
+      <c r="CC91">
+        <v>2</v>
+      </c>
+      <c r="CD91">
+        <v>2</v>
+      </c>
+      <c r="CE91">
+        <v>2</v>
+      </c>
+      <c r="CF91">
+        <v>2</v>
+      </c>
+      <c r="CG91">
+        <v>3</v>
+      </c>
+      <c r="CH91">
+        <v>2</v>
+      </c>
+      <c r="CI91">
+        <v>2</v>
+      </c>
+      <c r="CJ91">
+        <v>2</v>
+      </c>
+      <c r="CK91">
+        <v>2</v>
+      </c>
+      <c r="CL91">
+        <v>3</v>
+      </c>
+      <c r="CM91">
+        <v>1</v>
+      </c>
+      <c r="CN91">
+        <v>2</v>
+      </c>
+      <c r="CO91">
+        <v>2</v>
+      </c>
+      <c r="CP91">
+        <v>2</v>
+      </c>
+      <c r="CQ91">
+        <v>3</v>
+      </c>
+      <c r="CR91">
+        <v>3</v>
+      </c>
+      <c r="CS91">
+        <v>3</v>
+      </c>
+      <c r="CT91">
+        <v>2</v>
+      </c>
+      <c r="CU91">
+        <v>2</v>
+      </c>
+      <c r="CV91">
+        <v>2</v>
+      </c>
+      <c r="CW91">
+        <v>1</v>
+      </c>
+      <c r="CX91">
+        <v>1</v>
+      </c>
+      <c r="CY91">
+        <v>1</v>
+      </c>
+      <c r="CZ91">
+        <v>1</v>
+      </c>
+      <c r="DA91">
+        <v>1</v>
+      </c>
+      <c r="DB91">
+        <v>2</v>
+      </c>
+      <c r="DC91">
+        <v>3</v>
+      </c>
+      <c r="DD91">
+        <v>2</v>
+      </c>
+      <c r="DE91">
+        <v>2</v>
+      </c>
+      <c r="DF91">
+        <v>1</v>
+      </c>
+      <c r="DG91">
+        <v>1</v>
+      </c>
+      <c r="DH91">
+        <v>1</v>
+      </c>
+      <c r="DI91">
+        <v>1</v>
+      </c>
+      <c r="DJ91">
+        <v>1</v>
+      </c>
+      <c r="DK91">
+        <v>1</v>
+      </c>
+      <c r="DL91">
+        <v>3</v>
+      </c>
+      <c r="DM91">
+        <v>2</v>
+      </c>
+      <c r="DN91">
+        <v>1</v>
+      </c>
+      <c r="DO91">
+        <v>3</v>
+      </c>
+      <c r="DP91">
+        <v>2</v>
+      </c>
+      <c r="DQ91">
+        <v>2</v>
+      </c>
+      <c r="DR91">
+        <v>1</v>
+      </c>
+      <c r="DS91">
+        <v>1</v>
+      </c>
+      <c r="DT91">
+        <v>2</v>
+      </c>
+      <c r="DU91">
+        <v>1</v>
+      </c>
+      <c r="DV91">
+        <v>3</v>
+      </c>
+      <c r="DW91">
+        <v>2</v>
+      </c>
+      <c r="DX91">
+        <v>1</v>
+      </c>
+      <c r="DY91">
+        <v>3</v>
+      </c>
+      <c r="DZ91">
+        <v>3</v>
+      </c>
+      <c r="EA91" t="s">
+        <v>309</v>
+      </c>
+      <c r="EB91">
+        <v>20</v>
+      </c>
+      <c r="EC91" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE91" t="s">
+        <v>311</v>
+      </c>
+      <c r="EG91">
+        <v>680.74</v>
+      </c>
+      <c r="EH91">
+        <v>55.1</v>
+      </c>
+      <c r="EK91">
+        <v>167.98</v>
+      </c>
+      <c r="EM91">
+        <v>165.5</v>
+      </c>
+      <c r="EO91">
+        <v>76.33</v>
+      </c>
+      <c r="EQ91">
+        <v>78.72</v>
+      </c>
+      <c r="ES91">
+        <v>49.81</v>
+      </c>
+      <c r="EU91">
+        <v>61.88</v>
+      </c>
+      <c r="EW91">
+        <v>25.42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>448</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92">
+        <v>1103384541</v>
+      </c>
+      <c r="F92" t="s">
+        <v>449</v>
+      </c>
+      <c r="G92" t="s">
+        <v>448</v>
+      </c>
+      <c r="H92" t="s">
+        <v>162</v>
+      </c>
+      <c r="I92" t="s">
+        <v>450</v>
+      </c>
+      <c r="J92" t="s">
+        <v>113</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>4</v>
+      </c>
+      <c r="S92">
+        <v>3</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>3</v>
+      </c>
+      <c r="X92">
+        <v>3</v>
+      </c>
+      <c r="Y92">
+        <v>3</v>
+      </c>
+      <c r="Z92">
+        <v>3</v>
+      </c>
+      <c r="AA92">
+        <v>3</v>
+      </c>
+      <c r="AB92">
+        <v>3</v>
+      </c>
+      <c r="AC92">
+        <v>3</v>
+      </c>
+      <c r="AD92">
+        <v>3</v>
+      </c>
+      <c r="AE92">
+        <v>5</v>
+      </c>
+      <c r="AF92">
+        <v>5</v>
+      </c>
+      <c r="AG92">
+        <v>5</v>
+      </c>
+      <c r="AH92">
+        <v>5</v>
+      </c>
+      <c r="AI92">
+        <v>5</v>
+      </c>
+      <c r="AJ92">
+        <v>5</v>
+      </c>
+      <c r="AK92">
+        <v>5</v>
+      </c>
+      <c r="AL92">
+        <v>5</v>
+      </c>
+      <c r="AM92">
+        <v>5</v>
+      </c>
+      <c r="AN92">
+        <v>5</v>
+      </c>
+      <c r="AO92">
+        <v>5</v>
+      </c>
+      <c r="AP92">
+        <v>5</v>
+      </c>
+      <c r="AQ92">
+        <v>5</v>
+      </c>
+      <c r="AR92">
+        <v>5</v>
+      </c>
+      <c r="AS92">
+        <v>5</v>
+      </c>
+      <c r="AT92">
+        <v>5</v>
+      </c>
+      <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>5</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>4</v>
+      </c>
+      <c r="AZ92">
+        <v>3</v>
+      </c>
+      <c r="BA92">
+        <v>4</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>4</v>
+      </c>
+      <c r="BD92">
+        <v>4</v>
+      </c>
+      <c r="BE92">
+        <v>4</v>
+      </c>
+      <c r="BF92">
+        <v>4</v>
+      </c>
+      <c r="BG92">
+        <v>4</v>
+      </c>
+      <c r="BH92">
+        <v>4</v>
+      </c>
+      <c r="BI92">
+        <v>4</v>
+      </c>
+      <c r="BJ92">
+        <v>5</v>
+      </c>
+      <c r="BK92">
+        <v>4</v>
+      </c>
+      <c r="BL92">
+        <v>4</v>
+      </c>
+      <c r="BM92">
+        <v>4</v>
+      </c>
+      <c r="BN92">
+        <v>4</v>
+      </c>
+      <c r="BO92">
+        <v>4</v>
+      </c>
+      <c r="BP92">
+        <v>4</v>
+      </c>
+      <c r="BQ92">
+        <v>4</v>
+      </c>
+      <c r="BR92">
+        <v>4</v>
+      </c>
+      <c r="BS92">
+        <v>5</v>
+      </c>
+      <c r="BT92">
+        <v>5</v>
+      </c>
+      <c r="BU92">
+        <v>5</v>
+      </c>
+      <c r="BV92">
+        <v>5</v>
+      </c>
+      <c r="BW92">
+        <v>5</v>
+      </c>
+      <c r="BX92">
+        <v>5</v>
+      </c>
+      <c r="BY92">
+        <v>5</v>
+      </c>
+      <c r="BZ92">
+        <v>5</v>
+      </c>
+      <c r="CA92">
+        <v>5</v>
+      </c>
+      <c r="CB92">
+        <v>5</v>
+      </c>
+      <c r="CC92">
+        <v>5</v>
+      </c>
+      <c r="CD92">
+        <v>5</v>
+      </c>
+      <c r="CE92">
+        <v>5</v>
+      </c>
+      <c r="CF92">
+        <v>5</v>
+      </c>
+      <c r="CG92">
+        <v>5</v>
+      </c>
+      <c r="CH92">
+        <v>5</v>
+      </c>
+      <c r="CI92">
+        <v>5</v>
+      </c>
+      <c r="CJ92">
+        <v>5</v>
+      </c>
+      <c r="CK92">
+        <v>5</v>
+      </c>
+      <c r="CL92">
+        <v>5</v>
+      </c>
+      <c r="CM92">
+        <v>3</v>
+      </c>
+      <c r="CN92">
+        <v>3</v>
+      </c>
+      <c r="CO92">
+        <v>3</v>
+      </c>
+      <c r="CP92">
+        <v>3</v>
+      </c>
+      <c r="CQ92">
+        <v>3</v>
+      </c>
+      <c r="CR92">
+        <v>3</v>
+      </c>
+      <c r="CS92">
+        <v>3</v>
+      </c>
+      <c r="CT92">
+        <v>3</v>
+      </c>
+      <c r="CU92">
+        <v>3</v>
+      </c>
+      <c r="CV92">
+        <v>3</v>
+      </c>
+      <c r="CW92">
+        <v>2</v>
+      </c>
+      <c r="CX92">
+        <v>2</v>
+      </c>
+      <c r="CY92">
+        <v>3</v>
+      </c>
+      <c r="CZ92">
+        <v>2</v>
+      </c>
+      <c r="DA92">
+        <v>3</v>
+      </c>
+      <c r="DB92">
+        <v>3</v>
+      </c>
+      <c r="DC92">
+        <v>3</v>
+      </c>
+      <c r="DD92">
+        <v>3</v>
+      </c>
+      <c r="DE92">
+        <v>3</v>
+      </c>
+      <c r="DF92">
+        <v>3</v>
+      </c>
+      <c r="DG92">
+        <v>1</v>
+      </c>
+      <c r="DH92">
+        <v>1</v>
+      </c>
+      <c r="DI92">
+        <v>1</v>
+      </c>
+      <c r="DJ92">
+        <v>1</v>
+      </c>
+      <c r="DK92">
+        <v>1</v>
+      </c>
+      <c r="DL92">
+        <v>1</v>
+      </c>
+      <c r="DM92">
+        <v>1</v>
+      </c>
+      <c r="DN92">
+        <v>1</v>
+      </c>
+      <c r="DO92">
+        <v>1</v>
+      </c>
+      <c r="DP92">
+        <v>1</v>
+      </c>
+      <c r="DQ92">
+        <v>1</v>
+      </c>
+      <c r="DR92">
+        <v>1</v>
+      </c>
+      <c r="DS92">
+        <v>3</v>
+      </c>
+      <c r="DT92">
+        <v>1</v>
+      </c>
+      <c r="DU92">
+        <v>1</v>
+      </c>
+      <c r="DV92">
+        <v>3</v>
+      </c>
+      <c r="DW92">
+        <v>1</v>
+      </c>
+      <c r="DX92">
+        <v>1</v>
+      </c>
+      <c r="DY92">
+        <v>3</v>
+      </c>
+      <c r="DZ92">
+        <v>1</v>
+      </c>
+      <c r="EA92" t="s">
+        <v>304</v>
+      </c>
+      <c r="EB92">
+        <v>24</v>
+      </c>
+      <c r="EC92" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE92" t="s">
+        <v>311</v>
+      </c>
+      <c r="EG92">
+        <v>265.58999999999997</v>
+      </c>
+      <c r="EH92">
+        <v>21.91</v>
+      </c>
+      <c r="EK92">
+        <v>24.53</v>
+      </c>
+      <c r="EM92">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="EO92">
+        <v>32.69</v>
+      </c>
+      <c r="EQ92">
+        <v>63.97</v>
+      </c>
+      <c r="ES92">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="EU92">
+        <v>46.9</v>
+      </c>
+      <c r="EW92">
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>451</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93">
+        <v>1319187297</v>
+      </c>
+      <c r="F93" t="s">
+        <v>452</v>
+      </c>
+      <c r="G93" t="s">
+        <v>451</v>
+      </c>
+      <c r="I93" t="s">
+        <v>453</v>
+      </c>
+      <c r="J93" t="s">
+        <v>113</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>4</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>3</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>4</v>
+      </c>
+      <c r="V93">
+        <v>4</v>
+      </c>
+      <c r="W93">
+        <v>4</v>
+      </c>
+      <c r="X93">
+        <v>4</v>
+      </c>
+      <c r="Y93">
+        <v>4</v>
+      </c>
+      <c r="Z93">
+        <v>4</v>
+      </c>
+      <c r="AA93">
+        <v>4</v>
+      </c>
+      <c r="AB93">
+        <v>3</v>
+      </c>
+      <c r="AC93">
+        <v>4</v>
+      </c>
+      <c r="AD93">
+        <v>4</v>
+      </c>
+      <c r="AE93">
+        <v>5</v>
+      </c>
+      <c r="AF93">
+        <v>5</v>
+      </c>
+      <c r="AG93">
+        <v>5</v>
+      </c>
+      <c r="AH93">
+        <v>5</v>
+      </c>
+      <c r="AI93">
+        <v>5</v>
+      </c>
+      <c r="AJ93">
+        <v>5</v>
+      </c>
+      <c r="AK93">
+        <v>5</v>
+      </c>
+      <c r="AL93">
+        <v>5</v>
+      </c>
+      <c r="AM93">
+        <v>4</v>
+      </c>
+      <c r="AN93">
+        <v>4</v>
+      </c>
+      <c r="AO93">
+        <v>4</v>
+      </c>
+      <c r="AP93">
+        <v>4</v>
+      </c>
+      <c r="AQ93">
+        <v>4</v>
+      </c>
+      <c r="AR93">
+        <v>4</v>
+      </c>
+      <c r="AS93">
+        <v>4</v>
+      </c>
+      <c r="AT93">
+        <v>4</v>
+      </c>
+      <c r="AU93">
+        <v>4</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>4</v>
+      </c>
+      <c r="AZ93">
+        <v>3</v>
+      </c>
+      <c r="BA93">
+        <v>4</v>
+      </c>
+      <c r="BB93">
+        <v>2</v>
+      </c>
+      <c r="BC93">
+        <v>4</v>
+      </c>
+      <c r="BD93">
+        <v>4</v>
+      </c>
+      <c r="BE93">
+        <v>4</v>
+      </c>
+      <c r="BF93">
+        <v>4</v>
+      </c>
+      <c r="BG93">
+        <v>4</v>
+      </c>
+      <c r="BH93">
+        <v>4</v>
+      </c>
+      <c r="BI93">
+        <v>4</v>
+      </c>
+      <c r="BJ93">
+        <v>4</v>
+      </c>
+      <c r="BK93">
+        <v>3</v>
+      </c>
+      <c r="BL93">
+        <v>4</v>
+      </c>
+      <c r="BM93">
+        <v>4</v>
+      </c>
+      <c r="BN93">
+        <v>4</v>
+      </c>
+      <c r="BO93">
+        <v>3</v>
+      </c>
+      <c r="BP93">
+        <v>3</v>
+      </c>
+      <c r="BQ93">
+        <v>3</v>
+      </c>
+      <c r="BR93">
+        <v>3</v>
+      </c>
+      <c r="BS93">
+        <v>4</v>
+      </c>
+      <c r="BT93">
+        <v>5</v>
+      </c>
+      <c r="BU93">
+        <v>4</v>
+      </c>
+      <c r="BV93">
+        <v>4</v>
+      </c>
+      <c r="BW93">
+        <v>4</v>
+      </c>
+      <c r="BX93">
+        <v>4</v>
+      </c>
+      <c r="BY93">
+        <v>4</v>
+      </c>
+      <c r="BZ93">
+        <v>4</v>
+      </c>
+      <c r="CA93">
+        <v>4</v>
+      </c>
+      <c r="CB93">
+        <v>4</v>
+      </c>
+      <c r="CC93">
+        <v>4</v>
+      </c>
+      <c r="CD93">
+        <v>4</v>
+      </c>
+      <c r="CE93">
+        <v>4</v>
+      </c>
+      <c r="CF93">
+        <v>4</v>
+      </c>
+      <c r="CG93">
+        <v>4</v>
+      </c>
+      <c r="CH93">
+        <v>4</v>
+      </c>
+      <c r="CI93">
+        <v>4</v>
+      </c>
+      <c r="CJ93">
+        <v>4</v>
+      </c>
+      <c r="CK93">
+        <v>4</v>
+      </c>
+      <c r="CL93">
+        <v>4</v>
+      </c>
+      <c r="CM93">
+        <v>2</v>
+      </c>
+      <c r="CN93">
+        <v>4</v>
+      </c>
+      <c r="CO93">
+        <v>4</v>
+      </c>
+      <c r="CP93">
+        <v>2</v>
+      </c>
+      <c r="CQ93">
+        <v>2</v>
+      </c>
+      <c r="CR93">
+        <v>4</v>
+      </c>
+      <c r="CS93">
+        <v>2</v>
+      </c>
+      <c r="CT93">
+        <v>3</v>
+      </c>
+      <c r="CU93">
+        <v>2</v>
+      </c>
+      <c r="CV93">
+        <v>2</v>
+      </c>
+      <c r="CW93">
+        <v>3</v>
+      </c>
+      <c r="CX93">
+        <v>4</v>
+      </c>
+      <c r="CY93">
+        <v>4</v>
+      </c>
+      <c r="CZ93">
+        <v>4</v>
+      </c>
+      <c r="DA93">
+        <v>4</v>
+      </c>
+      <c r="DB93">
+        <v>3</v>
+      </c>
+      <c r="DC93">
+        <v>4</v>
+      </c>
+      <c r="DD93">
+        <v>3</v>
+      </c>
+      <c r="DE93">
+        <v>4</v>
+      </c>
+      <c r="DF93">
+        <v>4</v>
+      </c>
+      <c r="DG93">
+        <v>2</v>
+      </c>
+      <c r="DH93">
+        <v>1</v>
+      </c>
+      <c r="DI93">
+        <v>3</v>
+      </c>
+      <c r="DJ93">
+        <v>1</v>
+      </c>
+      <c r="DK93">
+        <v>1</v>
+      </c>
+      <c r="DL93">
+        <v>3</v>
+      </c>
+      <c r="DM93">
+        <v>3</v>
+      </c>
+      <c r="DN93">
+        <v>1</v>
+      </c>
+      <c r="DO93">
+        <v>3</v>
+      </c>
+      <c r="DP93">
+        <v>3</v>
+      </c>
+      <c r="DQ93">
+        <v>2</v>
+      </c>
+      <c r="DR93">
+        <v>3</v>
+      </c>
+      <c r="DS93">
+        <v>3</v>
+      </c>
+      <c r="DT93">
+        <v>3</v>
+      </c>
+      <c r="DU93">
+        <v>3</v>
+      </c>
+      <c r="DV93">
+        <v>4</v>
+      </c>
+      <c r="DW93">
+        <v>4</v>
+      </c>
+      <c r="DX93">
+        <v>3</v>
+      </c>
+      <c r="DY93">
+        <v>4</v>
+      </c>
+      <c r="DZ93">
+        <v>3</v>
+      </c>
+      <c r="EA93" t="s">
+        <v>304</v>
+      </c>
+      <c r="EB93">
+        <v>48</v>
+      </c>
+      <c r="EC93" t="s">
+        <v>307</v>
+      </c>
+      <c r="EE93" t="s">
+        <v>425</v>
+      </c>
+      <c r="EG93">
+        <v>690.72</v>
+      </c>
+      <c r="EH93">
+        <v>151.97999999999999</v>
+      </c>
+      <c r="EK93">
+        <v>87.62</v>
+      </c>
+      <c r="EM93">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="EO93">
+        <v>84.87</v>
+      </c>
+      <c r="EQ93">
+        <v>70.56</v>
+      </c>
+      <c r="ES93">
+        <v>157.02000000000001</v>
+      </c>
+      <c r="EU93">
+        <v>56.22</v>
+      </c>
+      <c r="EW93">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
+        <v>454</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94">
+        <v>1648277100</v>
+      </c>
+      <c r="F94" t="s">
+        <v>455</v>
+      </c>
+      <c r="G94" t="s">
+        <v>454</v>
+      </c>
+      <c r="H94" t="s">
+        <v>162</v>
+      </c>
+      <c r="I94" t="s">
+        <v>456</v>
+      </c>
+      <c r="J94" t="s">
+        <v>113</v>
+      </c>
+      <c r="K94">
+        <v>5</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94">
+        <v>3</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>4</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>5</v>
+      </c>
+      <c r="T94">
+        <v>2</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>5</v>
+      </c>
+      <c r="AA94">
+        <v>3</v>
+      </c>
+      <c r="AB94">
+        <v>3</v>
+      </c>
+      <c r="AC94">
+        <v>4</v>
+      </c>
+      <c r="AD94">
+        <v>2</v>
+      </c>
+      <c r="AE94">
+        <v>5</v>
+      </c>
+      <c r="AF94">
+        <v>5</v>
+      </c>
+      <c r="AG94">
+        <v>5</v>
+      </c>
+      <c r="AH94">
+        <v>5</v>
+      </c>
+      <c r="AI94">
+        <v>5</v>
+      </c>
+      <c r="AJ94">
+        <v>5</v>
+      </c>
+      <c r="AK94">
+        <v>5</v>
+      </c>
+      <c r="AL94">
+        <v>5</v>
+      </c>
+      <c r="AM94">
+        <v>5</v>
+      </c>
+      <c r="AN94">
+        <v>5</v>
+      </c>
+      <c r="AO94">
+        <v>5</v>
+      </c>
+      <c r="AP94">
+        <v>5</v>
+      </c>
+      <c r="AQ94">
+        <v>5</v>
+      </c>
+      <c r="AR94">
+        <v>5</v>
+      </c>
+      <c r="AS94">
+        <v>5</v>
+      </c>
+      <c r="AT94">
+        <v>5</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>5</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>5</v>
+      </c>
+      <c r="AZ94">
+        <v>4</v>
+      </c>
+      <c r="BA94">
+        <v>5</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>1</v>
+      </c>
+      <c r="BD94">
+        <v>5</v>
+      </c>
+      <c r="BE94">
+        <v>5</v>
+      </c>
+      <c r="BF94">
+        <v>5</v>
+      </c>
+      <c r="BG94">
+        <v>5</v>
+      </c>
+      <c r="BH94">
+        <v>5</v>
+      </c>
+      <c r="BI94">
+        <v>1</v>
+      </c>
+      <c r="BJ94">
+        <v>5</v>
+      </c>
+      <c r="BK94">
+        <v>4</v>
+      </c>
+      <c r="BL94">
+        <v>1</v>
+      </c>
+      <c r="BM94">
+        <v>1</v>
+      </c>
+      <c r="BN94">
+        <v>5</v>
+      </c>
+      <c r="BO94">
+        <v>5</v>
+      </c>
+      <c r="BP94">
+        <v>1</v>
+      </c>
+      <c r="BQ94">
+        <v>5</v>
+      </c>
+      <c r="BR94">
+        <v>2</v>
+      </c>
+      <c r="BS94">
+        <v>1</v>
+      </c>
+      <c r="BT94">
+        <v>3</v>
+      </c>
+      <c r="BU94">
+        <v>3</v>
+      </c>
+      <c r="BV94">
+        <v>2</v>
+      </c>
+      <c r="BW94">
+        <v>3</v>
+      </c>
+      <c r="BX94">
+        <v>2</v>
+      </c>
+      <c r="BY94">
+        <v>4</v>
+      </c>
+      <c r="BZ94">
+        <v>3</v>
+      </c>
+      <c r="CA94">
+        <v>4</v>
+      </c>
+      <c r="CB94">
+        <v>3</v>
+      </c>
+      <c r="CC94">
+        <v>1</v>
+      </c>
+      <c r="CD94">
+        <v>1</v>
+      </c>
+      <c r="CE94">
+        <v>1</v>
+      </c>
+      <c r="CF94">
+        <v>1</v>
+      </c>
+      <c r="CG94">
+        <v>1</v>
+      </c>
+      <c r="CH94">
+        <v>1</v>
+      </c>
+      <c r="CI94">
+        <v>2</v>
+      </c>
+      <c r="CJ94">
+        <v>3</v>
+      </c>
+      <c r="CK94">
+        <v>3</v>
+      </c>
+      <c r="CL94">
+        <v>2</v>
+      </c>
+      <c r="CM94">
+        <v>5</v>
+      </c>
+      <c r="CN94">
+        <v>5</v>
+      </c>
+      <c r="CO94">
+        <v>5</v>
+      </c>
+      <c r="CP94">
+        <v>5</v>
+      </c>
+      <c r="CQ94">
+        <v>5</v>
+      </c>
+      <c r="CR94">
+        <v>5</v>
+      </c>
+      <c r="CS94">
+        <v>5</v>
+      </c>
+      <c r="CT94">
+        <v>5</v>
+      </c>
+      <c r="CU94">
+        <v>1</v>
+      </c>
+      <c r="CV94">
+        <v>2</v>
+      </c>
+      <c r="CW94">
+        <v>3</v>
+      </c>
+      <c r="CX94">
+        <v>3</v>
+      </c>
+      <c r="CY94">
+        <v>4</v>
+      </c>
+      <c r="CZ94">
+        <v>1</v>
+      </c>
+      <c r="DA94">
+        <v>3</v>
+      </c>
+      <c r="DB94">
+        <v>1</v>
+      </c>
+      <c r="DC94">
+        <v>1</v>
+      </c>
+      <c r="DD94">
+        <v>2</v>
+      </c>
+      <c r="DE94">
+        <v>2</v>
+      </c>
+      <c r="DF94">
+        <v>1</v>
+      </c>
+      <c r="DG94">
+        <v>1</v>
+      </c>
+      <c r="DH94">
+        <v>1</v>
+      </c>
+      <c r="DI94">
+        <v>2</v>
+      </c>
+      <c r="DJ94">
+        <v>1</v>
+      </c>
+      <c r="DK94">
+        <v>1</v>
+      </c>
+      <c r="DL94">
+        <v>1</v>
+      </c>
+      <c r="DM94">
+        <v>3</v>
+      </c>
+      <c r="DN94">
+        <v>1</v>
+      </c>
+      <c r="DO94">
+        <v>3</v>
+      </c>
+      <c r="DP94">
+        <v>2</v>
+      </c>
+      <c r="DQ94">
+        <v>1</v>
+      </c>
+      <c r="DR94">
+        <v>2</v>
+      </c>
+      <c r="DS94">
+        <v>2</v>
+      </c>
+      <c r="DT94">
+        <v>1</v>
+      </c>
+      <c r="DU94">
+        <v>2</v>
+      </c>
+      <c r="DV94">
+        <v>5</v>
+      </c>
+      <c r="DW94">
+        <v>5</v>
+      </c>
+      <c r="DX94">
+        <v>2</v>
+      </c>
+      <c r="DY94">
+        <v>3</v>
+      </c>
+      <c r="DZ94">
+        <v>2</v>
+      </c>
+      <c r="EA94" t="s">
+        <v>304</v>
+      </c>
+      <c r="EB94">
+        <v>22</v>
+      </c>
+      <c r="EC94" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE94" t="s">
+        <v>311</v>
+      </c>
+      <c r="EG94">
+        <v>436.05</v>
+      </c>
+      <c r="EH94">
+        <v>58.87</v>
+      </c>
+      <c r="EK94">
+        <v>56.26</v>
+      </c>
+      <c r="EM94">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="EO94">
+        <v>59.6</v>
+      </c>
+      <c r="EQ94">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="ES94">
+        <v>58.3</v>
+      </c>
+      <c r="EU94">
+        <v>113.97</v>
+      </c>
+      <c r="EW94">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>128</v>
+      </c>
+      <c r="B95" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95">
+        <v>1148441185</v>
+      </c>
+      <c r="F95" t="s">
+        <v>458</v>
+      </c>
+      <c r="G95" t="s">
+        <v>457</v>
+      </c>
+      <c r="H95" t="s">
+        <v>162</v>
+      </c>
+      <c r="I95" t="s">
+        <v>459</v>
+      </c>
+      <c r="J95" t="s">
+        <v>113</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <v>2</v>
+      </c>
+      <c r="Q95">
+        <v>3</v>
+      </c>
+      <c r="R95">
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>3</v>
+      </c>
+      <c r="T95">
+        <v>3</v>
+      </c>
+      <c r="U95">
+        <v>3</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>4</v>
+      </c>
+      <c r="X95">
+        <v>3</v>
+      </c>
+      <c r="Y95">
+        <v>4</v>
+      </c>
+      <c r="Z95">
+        <v>3</v>
+      </c>
+      <c r="AA95">
+        <v>4</v>
+      </c>
+      <c r="AB95">
+        <v>3</v>
+      </c>
+      <c r="AC95">
+        <v>4</v>
+      </c>
+      <c r="AD95">
+        <v>3</v>
+      </c>
+      <c r="AE95">
+        <v>3</v>
+      </c>
+      <c r="AF95">
+        <v>3</v>
+      </c>
+      <c r="AG95">
+        <v>4</v>
+      </c>
+      <c r="AH95">
+        <v>3</v>
+      </c>
+      <c r="AI95">
+        <v>4</v>
+      </c>
+      <c r="AJ95">
+        <v>4</v>
+      </c>
+      <c r="AK95">
+        <v>4</v>
+      </c>
+      <c r="AL95">
+        <v>4</v>
+      </c>
+      <c r="AM95">
+        <v>4</v>
+      </c>
+      <c r="AN95">
+        <v>4</v>
+      </c>
+      <c r="AO95">
+        <v>4</v>
+      </c>
+      <c r="AP95">
+        <v>4</v>
+      </c>
+      <c r="AQ95">
+        <v>4</v>
+      </c>
+      <c r="AR95">
+        <v>4</v>
+      </c>
+      <c r="AS95">
+        <v>4</v>
+      </c>
+      <c r="AT95">
+        <v>4</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>4</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>3</v>
+      </c>
+      <c r="AZ95">
+        <v>2</v>
+      </c>
+      <c r="BA95">
+        <v>2</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>3</v>
+      </c>
+      <c r="BD95">
+        <v>2</v>
+      </c>
+      <c r="BE95">
+        <v>3</v>
+      </c>
+      <c r="BF95">
+        <v>3</v>
+      </c>
+      <c r="BG95">
+        <v>3</v>
+      </c>
+      <c r="BH95">
+        <v>2</v>
+      </c>
+      <c r="BI95">
+        <v>2</v>
+      </c>
+      <c r="BJ95">
+        <v>2</v>
+      </c>
+      <c r="BK95">
+        <v>3</v>
+      </c>
+      <c r="BL95">
+        <v>4</v>
+      </c>
+      <c r="BM95">
+        <v>3</v>
+      </c>
+      <c r="BN95">
+        <v>3</v>
+      </c>
+      <c r="BO95">
+        <v>2</v>
+      </c>
+      <c r="BP95">
+        <v>3</v>
+      </c>
+      <c r="BQ95">
+        <v>2</v>
+      </c>
+      <c r="BR95">
+        <v>2</v>
+      </c>
+      <c r="BS95">
+        <v>4</v>
+      </c>
+      <c r="BT95">
+        <v>4</v>
+      </c>
+      <c r="BU95">
+        <v>5</v>
+      </c>
+      <c r="BV95">
+        <v>4</v>
+      </c>
+      <c r="BW95">
+        <v>4</v>
+      </c>
+      <c r="BX95">
+        <v>4</v>
+      </c>
+      <c r="BY95">
+        <v>3</v>
+      </c>
+      <c r="BZ95">
+        <v>5</v>
+      </c>
+      <c r="CA95">
+        <v>4</v>
+      </c>
+      <c r="CB95">
+        <v>4</v>
+      </c>
+      <c r="CC95">
+        <v>4</v>
+      </c>
+      <c r="CD95">
+        <v>4</v>
+      </c>
+      <c r="CE95">
+        <v>4</v>
+      </c>
+      <c r="CF95">
+        <v>3</v>
+      </c>
+      <c r="CG95">
+        <v>4</v>
+      </c>
+      <c r="CH95">
+        <v>4</v>
+      </c>
+      <c r="CI95">
+        <v>4</v>
+      </c>
+      <c r="CJ95">
+        <v>4</v>
+      </c>
+      <c r="CK95">
+        <v>4</v>
+      </c>
+      <c r="CL95">
+        <v>4</v>
+      </c>
+      <c r="CM95">
+        <v>3</v>
+      </c>
+      <c r="CN95">
+        <v>3</v>
+      </c>
+      <c r="CO95">
+        <v>3</v>
+      </c>
+      <c r="CP95">
+        <v>4</v>
+      </c>
+      <c r="CQ95">
+        <v>3</v>
+      </c>
+      <c r="CR95">
+        <v>3</v>
+      </c>
+      <c r="CS95">
+        <v>3</v>
+      </c>
+      <c r="CT95">
+        <v>2</v>
+      </c>
+      <c r="CU95">
+        <v>3</v>
+      </c>
+      <c r="CV95">
+        <v>3</v>
+      </c>
+      <c r="CW95">
+        <v>4</v>
+      </c>
+      <c r="CX95">
+        <v>4</v>
+      </c>
+      <c r="CY95">
+        <v>3</v>
+      </c>
+      <c r="CZ95">
+        <v>2</v>
+      </c>
+      <c r="DA95">
+        <v>3</v>
+      </c>
+      <c r="DB95">
+        <v>3</v>
+      </c>
+      <c r="DC95">
+        <v>4</v>
+      </c>
+      <c r="DD95">
+        <v>3</v>
+      </c>
+      <c r="DE95">
+        <v>4</v>
+      </c>
+      <c r="DF95">
+        <v>2</v>
+      </c>
+      <c r="DG95">
+        <v>3</v>
+      </c>
+      <c r="DH95">
+        <v>3</v>
+      </c>
+      <c r="DI95">
+        <v>2</v>
+      </c>
+      <c r="DJ95">
+        <v>3</v>
+      </c>
+      <c r="DK95">
+        <v>4</v>
+      </c>
+      <c r="DL95">
+        <v>3</v>
+      </c>
+      <c r="DM95">
+        <v>2</v>
+      </c>
+      <c r="DN95">
+        <v>4</v>
+      </c>
+      <c r="DO95">
+        <v>3</v>
+      </c>
+      <c r="DP95">
+        <v>4</v>
+      </c>
+      <c r="DQ95">
+        <v>3</v>
+      </c>
+      <c r="DR95">
+        <v>3</v>
+      </c>
+      <c r="DS95">
+        <v>2</v>
+      </c>
+      <c r="DT95">
+        <v>3</v>
+      </c>
+      <c r="DU95">
+        <v>3</v>
+      </c>
+      <c r="DV95">
+        <v>3</v>
+      </c>
+      <c r="DW95">
+        <v>2</v>
+      </c>
+      <c r="DX95">
+        <v>4</v>
+      </c>
+      <c r="DY95">
+        <v>2</v>
+      </c>
+      <c r="DZ95">
+        <v>3</v>
+      </c>
+      <c r="EA95" t="s">
+        <v>309</v>
+      </c>
+      <c r="EB95">
+        <v>222222</v>
+      </c>
+      <c r="EC95" t="s">
+        <v>307</v>
+      </c>
+      <c r="EE95" t="s">
+        <v>311</v>
+      </c>
+      <c r="EG95">
+        <v>278.39</v>
+      </c>
+      <c r="EH95">
+        <v>55.31</v>
+      </c>
+      <c r="EK95">
+        <v>21.96</v>
+      </c>
+      <c r="EM95">
+        <v>24.49</v>
+      </c>
+      <c r="EO95">
+        <v>33.4</v>
+      </c>
+      <c r="EQ95">
+        <v>29.54</v>
+      </c>
+      <c r="ES95">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="EU95">
+        <v>35.99</v>
+      </c>
+      <c r="EW95">
+        <v>40.93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>130</v>
+      </c>
+      <c r="B96" t="s">
+        <v>460</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96">
+        <v>1713486428</v>
+      </c>
+      <c r="F96" t="s">
+        <v>461</v>
+      </c>
+      <c r="G96" t="s">
+        <v>460</v>
+      </c>
+      <c r="H96" t="s">
+        <v>162</v>
+      </c>
+      <c r="I96" t="s">
+        <v>462</v>
+      </c>
+      <c r="J96" t="s">
+        <v>113</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96">
+        <v>3</v>
+      </c>
+      <c r="P96">
+        <v>3</v>
+      </c>
+      <c r="Q96">
+        <v>2</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>4</v>
+      </c>
+      <c r="X96">
+        <v>3</v>
+      </c>
+      <c r="Y96">
+        <v>3</v>
+      </c>
+      <c r="Z96">
+        <v>4</v>
+      </c>
+      <c r="AA96">
+        <v>3</v>
+      </c>
+      <c r="AB96">
+        <v>4</v>
+      </c>
+      <c r="AC96">
+        <v>4</v>
+      </c>
+      <c r="AD96">
+        <v>4</v>
+      </c>
+      <c r="AE96">
+        <v>4</v>
+      </c>
+      <c r="AF96">
+        <v>4</v>
+      </c>
+      <c r="AG96">
+        <v>4</v>
+      </c>
+      <c r="AH96">
+        <v>4</v>
+      </c>
+      <c r="AI96">
+        <v>4</v>
+      </c>
+      <c r="AJ96">
+        <v>4</v>
+      </c>
+      <c r="AK96">
+        <v>3</v>
+      </c>
+      <c r="AL96">
+        <v>4</v>
+      </c>
+      <c r="AM96">
+        <v>4</v>
+      </c>
+      <c r="AN96">
+        <v>3</v>
+      </c>
+      <c r="AO96">
+        <v>4</v>
+      </c>
+      <c r="AP96">
+        <v>4</v>
+      </c>
+      <c r="AQ96">
+        <v>3</v>
+      </c>
+      <c r="AR96">
+        <v>4</v>
+      </c>
+      <c r="AS96">
+        <v>4</v>
+      </c>
+      <c r="AT96">
+        <v>4</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>4</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>4</v>
+      </c>
+      <c r="AZ96">
+        <v>3</v>
+      </c>
+      <c r="BA96">
+        <v>4</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
+        <v>3</v>
+      </c>
+      <c r="BD96">
+        <v>4</v>
+      </c>
+      <c r="BE96">
+        <v>4</v>
+      </c>
+      <c r="BF96">
+        <v>4</v>
+      </c>
+      <c r="BG96">
+        <v>3</v>
+      </c>
+      <c r="BH96">
+        <v>4</v>
+      </c>
+      <c r="BI96">
+        <v>4</v>
+      </c>
+      <c r="BJ96">
+        <v>4</v>
+      </c>
+      <c r="BK96">
+        <v>3</v>
+      </c>
+      <c r="BL96">
+        <v>4</v>
+      </c>
+      <c r="BM96">
+        <v>4</v>
+      </c>
+      <c r="BN96">
+        <v>3</v>
+      </c>
+      <c r="BO96">
+        <v>3</v>
+      </c>
+      <c r="BP96">
+        <v>2</v>
+      </c>
+      <c r="BQ96">
+        <v>4</v>
+      </c>
+      <c r="BR96">
+        <v>2</v>
+      </c>
+      <c r="BS96">
+        <v>4</v>
+      </c>
+      <c r="BT96">
+        <v>4</v>
+      </c>
+      <c r="BU96">
+        <v>4</v>
+      </c>
+      <c r="BV96">
+        <v>4</v>
+      </c>
+      <c r="BW96">
+        <v>3</v>
+      </c>
+      <c r="BX96">
+        <v>3</v>
+      </c>
+      <c r="BY96">
+        <v>2</v>
+      </c>
+      <c r="BZ96">
+        <v>4</v>
+      </c>
+      <c r="CA96">
+        <v>2</v>
+      </c>
+      <c r="CB96">
+        <v>2</v>
+      </c>
+      <c r="CC96">
+        <v>4</v>
+      </c>
+      <c r="CD96">
+        <v>3</v>
+      </c>
+      <c r="CE96">
+        <v>3</v>
+      </c>
+      <c r="CF96">
+        <v>4</v>
+      </c>
+      <c r="CG96">
+        <v>4</v>
+      </c>
+      <c r="CH96">
+        <v>3</v>
+      </c>
+      <c r="CI96">
+        <v>3</v>
+      </c>
+      <c r="CJ96">
+        <v>3</v>
+      </c>
+      <c r="CK96">
+        <v>3</v>
+      </c>
+      <c r="CL96">
+        <v>3</v>
+      </c>
+      <c r="CM96">
+        <v>2</v>
+      </c>
+      <c r="CN96">
+        <v>2</v>
+      </c>
+      <c r="CO96">
+        <v>2</v>
+      </c>
+      <c r="CP96">
+        <v>2</v>
+      </c>
+      <c r="CQ96">
+        <v>3</v>
+      </c>
+      <c r="CR96">
+        <v>2</v>
+      </c>
+      <c r="CS96">
+        <v>2</v>
+      </c>
+      <c r="CT96">
+        <v>2</v>
+      </c>
+      <c r="CU96">
+        <v>3</v>
+      </c>
+      <c r="CV96">
+        <v>3</v>
+      </c>
+      <c r="CW96">
+        <v>2</v>
+      </c>
+      <c r="CX96">
+        <v>2</v>
+      </c>
+      <c r="CY96">
+        <v>3</v>
+      </c>
+      <c r="CZ96">
+        <v>2</v>
+      </c>
+      <c r="DA96">
+        <v>2</v>
+      </c>
+      <c r="DB96">
+        <v>3</v>
+      </c>
+      <c r="DC96">
+        <v>3</v>
+      </c>
+      <c r="DD96">
+        <v>3</v>
+      </c>
+      <c r="DE96">
+        <v>3</v>
+      </c>
+      <c r="DF96">
+        <v>3</v>
+      </c>
+      <c r="DG96">
+        <v>1</v>
+      </c>
+      <c r="DH96">
+        <v>1</v>
+      </c>
+      <c r="DI96">
+        <v>1</v>
+      </c>
+      <c r="DJ96">
+        <v>1</v>
+      </c>
+      <c r="DK96">
+        <v>1</v>
+      </c>
+      <c r="DL96">
+        <v>2</v>
+      </c>
+      <c r="DM96">
+        <v>1</v>
+      </c>
+      <c r="DN96">
+        <v>1</v>
+      </c>
+      <c r="DO96">
+        <v>3</v>
+      </c>
+      <c r="DP96">
+        <v>2</v>
+      </c>
+      <c r="DQ96">
+        <v>1</v>
+      </c>
+      <c r="DR96">
+        <v>2</v>
+      </c>
+      <c r="DS96">
+        <v>3</v>
+      </c>
+      <c r="DT96">
+        <v>1</v>
+      </c>
+      <c r="DU96">
+        <v>1</v>
+      </c>
+      <c r="DV96">
+        <v>4</v>
+      </c>
+      <c r="DW96">
+        <v>3</v>
+      </c>
+      <c r="DX96">
+        <v>3</v>
+      </c>
+      <c r="DY96">
+        <v>3</v>
+      </c>
+      <c r="DZ96">
+        <v>5</v>
+      </c>
+      <c r="EA96" t="s">
+        <v>309</v>
+      </c>
+      <c r="EB96">
+        <v>36</v>
+      </c>
+      <c r="EC96" t="s">
+        <v>315</v>
+      </c>
+      <c r="EE96" t="s">
+        <v>314</v>
+      </c>
+      <c r="EG96">
+        <v>635.47</v>
+      </c>
+      <c r="EH96">
+        <v>48.56</v>
+      </c>
+      <c r="EK96">
+        <v>99.76</v>
+      </c>
+      <c r="EM96">
+        <v>74.23</v>
+      </c>
+      <c r="EO96">
+        <v>125.09</v>
+      </c>
+      <c r="EQ96">
+        <v>113.02</v>
+      </c>
+      <c r="ES96">
+        <v>68.78</v>
+      </c>
+      <c r="EU96">
+        <v>76.86</v>
+      </c>
+      <c r="EW96">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>131</v>
+      </c>
+      <c r="B97" t="s">
+        <v>463</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97">
+        <v>1185516048</v>
+      </c>
+      <c r="F97" t="s">
+        <v>464</v>
+      </c>
+      <c r="G97" t="s">
+        <v>463</v>
+      </c>
+      <c r="H97" t="s">
+        <v>162</v>
+      </c>
+      <c r="I97" t="s">
+        <v>465</v>
+      </c>
+      <c r="J97" t="s">
+        <v>113</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>4</v>
+      </c>
+      <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>4</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>4</v>
+      </c>
+      <c r="U97">
+        <v>3</v>
+      </c>
+      <c r="V97">
+        <v>5</v>
+      </c>
+      <c r="W97">
+        <v>4</v>
+      </c>
+      <c r="X97">
+        <v>3</v>
+      </c>
+      <c r="Y97">
+        <v>4</v>
+      </c>
+      <c r="Z97">
+        <v>4</v>
+      </c>
+      <c r="AA97">
+        <v>3</v>
+      </c>
+      <c r="AB97">
+        <v>5</v>
+      </c>
+      <c r="AC97">
+        <v>4</v>
+      </c>
+      <c r="AD97">
+        <v>4</v>
+      </c>
+      <c r="AE97">
+        <v>4</v>
+      </c>
+      <c r="AF97">
+        <v>4</v>
+      </c>
+      <c r="AG97">
+        <v>4</v>
+      </c>
+      <c r="AH97">
+        <v>5</v>
+      </c>
+      <c r="AI97">
+        <v>5</v>
+      </c>
+      <c r="AJ97">
+        <v>4</v>
+      </c>
+      <c r="AK97">
+        <v>4</v>
+      </c>
+      <c r="AL97">
+        <v>4</v>
+      </c>
+      <c r="AM97">
+        <v>5</v>
+      </c>
+      <c r="AN97">
+        <v>5</v>
+      </c>
+      <c r="AO97">
+        <v>4</v>
+      </c>
+      <c r="AP97">
+        <v>4</v>
+      </c>
+      <c r="AQ97">
+        <v>5</v>
+      </c>
+      <c r="AR97">
+        <v>4</v>
+      </c>
+      <c r="AS97">
+        <v>4</v>
+      </c>
+      <c r="AT97">
+        <v>4</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>4</v>
+      </c>
+      <c r="AX97">
+        <v>5</v>
+      </c>
+      <c r="AY97">
+        <v>2</v>
+      </c>
+      <c r="AZ97">
+        <v>3</v>
+      </c>
+      <c r="BA97">
+        <v>2</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
+        <v>4</v>
+      </c>
+      <c r="BD97">
+        <v>3</v>
+      </c>
+      <c r="BE97">
+        <v>4</v>
+      </c>
+      <c r="BF97">
+        <v>3</v>
+      </c>
+      <c r="BG97">
+        <v>3</v>
+      </c>
+      <c r="BH97">
+        <v>4</v>
+      </c>
+      <c r="BI97">
+        <v>5</v>
+      </c>
+      <c r="BJ97">
+        <v>5</v>
+      </c>
+      <c r="BK97">
+        <v>4</v>
+      </c>
+      <c r="BL97">
+        <v>5</v>
+      </c>
+      <c r="BM97">
+        <v>3</v>
+      </c>
+      <c r="BN97">
+        <v>3</v>
+      </c>
+      <c r="BO97">
+        <v>2</v>
+      </c>
+      <c r="BP97">
+        <v>2</v>
+      </c>
+      <c r="BQ97">
+        <v>2</v>
+      </c>
+      <c r="BR97">
+        <v>3</v>
+      </c>
+      <c r="BS97">
+        <v>4</v>
+      </c>
+      <c r="BT97">
+        <v>4</v>
+      </c>
+      <c r="BU97">
+        <v>4</v>
+      </c>
+      <c r="BV97">
+        <v>4</v>
+      </c>
+      <c r="BW97">
+        <v>5</v>
+      </c>
+      <c r="BX97">
+        <v>4</v>
+      </c>
+      <c r="BY97">
+        <v>4</v>
+      </c>
+      <c r="BZ97">
+        <v>4</v>
+      </c>
+      <c r="CA97">
+        <v>4</v>
+      </c>
+      <c r="CB97">
+        <v>4</v>
+      </c>
+      <c r="CC97">
+        <v>3</v>
+      </c>
+      <c r="CD97">
+        <v>3</v>
+      </c>
+      <c r="CE97">
+        <v>4</v>
+      </c>
+      <c r="CF97">
+        <v>2</v>
+      </c>
+      <c r="CG97">
+        <v>3</v>
+      </c>
+      <c r="CH97">
+        <v>5</v>
+      </c>
+      <c r="CI97">
+        <v>4</v>
+      </c>
+      <c r="CJ97">
+        <v>4</v>
+      </c>
+      <c r="CK97">
+        <v>3</v>
+      </c>
+      <c r="CL97">
+        <v>4</v>
+      </c>
+      <c r="CM97">
+        <v>1</v>
+      </c>
+      <c r="CN97">
+        <v>2</v>
+      </c>
+      <c r="CO97">
+        <v>3</v>
+      </c>
+      <c r="CP97">
+        <v>1</v>
+      </c>
+      <c r="CQ97">
+        <v>4</v>
+      </c>
+      <c r="CR97">
+        <v>2</v>
+      </c>
+      <c r="CS97">
+        <v>2</v>
+      </c>
+      <c r="CT97">
+        <v>4</v>
+      </c>
+      <c r="CU97">
+        <v>4</v>
+      </c>
+      <c r="CV97">
+        <v>2</v>
+      </c>
+      <c r="CW97">
+        <v>2</v>
+      </c>
+      <c r="CX97">
+        <v>3</v>
+      </c>
+      <c r="CY97">
+        <v>3</v>
+      </c>
+      <c r="CZ97">
+        <v>2</v>
+      </c>
+      <c r="DA97">
+        <v>1</v>
+      </c>
+      <c r="DB97">
+        <v>2</v>
+      </c>
+      <c r="DC97">
+        <v>2</v>
+      </c>
+      <c r="DD97">
+        <v>2</v>
+      </c>
+      <c r="DE97">
+        <v>2</v>
+      </c>
+      <c r="DF97">
+        <v>3</v>
+      </c>
+      <c r="DG97">
+        <v>1</v>
+      </c>
+      <c r="DH97">
+        <v>1</v>
+      </c>
+      <c r="DI97">
+        <v>2</v>
+      </c>
+      <c r="DJ97">
+        <v>1</v>
+      </c>
+      <c r="DK97">
+        <v>1</v>
+      </c>
+      <c r="DL97">
+        <v>2</v>
+      </c>
+      <c r="DM97">
+        <v>2</v>
+      </c>
+      <c r="DN97">
+        <v>1</v>
+      </c>
+      <c r="DO97">
+        <v>3</v>
+      </c>
+      <c r="DP97">
+        <v>3</v>
+      </c>
+      <c r="DQ97">
+        <v>3</v>
+      </c>
+      <c r="DR97">
+        <v>4</v>
+      </c>
+      <c r="DS97">
+        <v>4</v>
+      </c>
+      <c r="DT97">
+        <v>3</v>
+      </c>
+      <c r="DU97">
+        <v>2</v>
+      </c>
+      <c r="DV97">
+        <v>3</v>
+      </c>
+      <c r="DW97">
+        <v>2</v>
+      </c>
+      <c r="DX97">
+        <v>3</v>
+      </c>
+      <c r="DY97">
+        <v>2</v>
+      </c>
+      <c r="DZ97">
+        <v>5</v>
+      </c>
+      <c r="EA97" t="s">
+        <v>312</v>
+      </c>
+      <c r="EB97">
+        <v>26</v>
+      </c>
+      <c r="EC97" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE97" t="s">
+        <v>308</v>
+      </c>
+      <c r="EG97">
+        <v>566.35</v>
+      </c>
+      <c r="EH97">
+        <v>65.53</v>
+      </c>
+      <c r="EK97">
+        <v>71.91</v>
+      </c>
+      <c r="EM97">
+        <v>63.04</v>
+      </c>
+      <c r="EO97">
+        <v>76.19</v>
+      </c>
+      <c r="EQ97">
+        <v>63.1</v>
+      </c>
+      <c r="ES97">
+        <v>59.93</v>
+      </c>
+      <c r="EU97">
+        <v>145.85</v>
+      </c>
+      <c r="EW97">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>466</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98">
+        <v>110888121</v>
+      </c>
+      <c r="F98" t="s">
+        <v>467</v>
+      </c>
+      <c r="G98" t="s">
+        <v>466</v>
+      </c>
+      <c r="H98" t="s">
+        <v>339</v>
+      </c>
+      <c r="I98" t="s">
+        <v>468</v>
+      </c>
+      <c r="J98" t="s">
+        <v>113</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="P98">
+        <v>3</v>
+      </c>
+      <c r="Q98">
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>3</v>
+      </c>
+      <c r="X98">
+        <v>3</v>
+      </c>
+      <c r="Y98">
+        <v>2</v>
+      </c>
+      <c r="Z98">
+        <v>3</v>
+      </c>
+      <c r="AA98">
+        <v>3</v>
+      </c>
+      <c r="AB98">
+        <v>3</v>
+      </c>
+      <c r="AC98">
+        <v>4</v>
+      </c>
+      <c r="AD98">
+        <v>3</v>
+      </c>
+      <c r="AE98">
+        <v>5</v>
+      </c>
+      <c r="AF98">
+        <v>5</v>
+      </c>
+      <c r="AG98">
+        <v>5</v>
+      </c>
+      <c r="AH98">
+        <v>4</v>
+      </c>
+      <c r="AI98">
+        <v>5</v>
+      </c>
+      <c r="AJ98">
+        <v>5</v>
+      </c>
+      <c r="AK98">
+        <v>5</v>
+      </c>
+      <c r="AL98">
+        <v>5</v>
+      </c>
+      <c r="AM98">
+        <v>4</v>
+      </c>
+      <c r="AN98">
+        <v>4</v>
+      </c>
+      <c r="AO98">
+        <v>5</v>
+      </c>
+      <c r="AP98">
+        <v>4</v>
+      </c>
+      <c r="AQ98">
+        <v>4</v>
+      </c>
+      <c r="AR98">
+        <v>4</v>
+      </c>
+      <c r="AS98">
+        <v>5</v>
+      </c>
+      <c r="AT98">
+        <v>3</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>3</v>
+      </c>
+      <c r="AY98">
+        <v>2</v>
+      </c>
+      <c r="AZ98">
+        <v>2</v>
+      </c>
+      <c r="BA98">
+        <v>2</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
+        <v>4</v>
+      </c>
+      <c r="BD98">
+        <v>3</v>
+      </c>
+      <c r="BE98">
+        <v>3</v>
+      </c>
+      <c r="BF98">
+        <v>2</v>
+      </c>
+      <c r="BG98">
+        <v>3</v>
+      </c>
+      <c r="BH98">
+        <v>3</v>
+      </c>
+      <c r="BI98">
+        <v>4</v>
+      </c>
+      <c r="BJ98">
+        <v>3</v>
+      </c>
+      <c r="BK98">
+        <v>3</v>
+      </c>
+      <c r="BL98">
+        <v>3</v>
+      </c>
+      <c r="BM98">
+        <v>3</v>
+      </c>
+      <c r="BN98">
+        <v>3</v>
+      </c>
+      <c r="BO98">
+        <v>3</v>
+      </c>
+      <c r="BP98">
+        <v>3</v>
+      </c>
+      <c r="BQ98">
+        <v>2</v>
+      </c>
+      <c r="BR98">
+        <v>3</v>
+      </c>
+      <c r="BS98">
+        <v>2</v>
+      </c>
+      <c r="BT98">
+        <v>2</v>
+      </c>
+      <c r="BU98">
+        <v>3</v>
+      </c>
+      <c r="BV98">
+        <v>2</v>
+      </c>
+      <c r="BW98">
+        <v>2</v>
+      </c>
+      <c r="BX98">
+        <v>3</v>
+      </c>
+      <c r="BY98">
+        <v>3</v>
+      </c>
+      <c r="BZ98">
+        <v>2</v>
+      </c>
+      <c r="CA98">
+        <v>2</v>
+      </c>
+      <c r="CB98">
+        <v>2</v>
+      </c>
+      <c r="CC98">
+        <v>3</v>
+      </c>
+      <c r="CD98">
+        <v>4</v>
+      </c>
+      <c r="CE98">
+        <v>3</v>
+      </c>
+      <c r="CF98">
+        <v>3</v>
+      </c>
+      <c r="CG98">
+        <v>3</v>
+      </c>
+      <c r="CH98">
+        <v>2</v>
+      </c>
+      <c r="CI98">
+        <v>3</v>
+      </c>
+      <c r="CJ98">
+        <v>3</v>
+      </c>
+      <c r="CK98">
+        <v>3</v>
+      </c>
+      <c r="CL98">
+        <v>4</v>
+      </c>
+      <c r="CM98">
+        <v>1</v>
+      </c>
+      <c r="CN98">
+        <v>3</v>
+      </c>
+      <c r="CO98">
+        <v>2</v>
+      </c>
+      <c r="CP98">
+        <v>1</v>
+      </c>
+      <c r="CQ98">
+        <v>2</v>
+      </c>
+      <c r="CR98">
+        <v>4</v>
+      </c>
+      <c r="CS98">
+        <v>4</v>
+      </c>
+      <c r="CT98">
+        <v>2</v>
+      </c>
+      <c r="CU98">
+        <v>2</v>
+      </c>
+      <c r="CV98">
+        <v>2</v>
+      </c>
+      <c r="CW98">
+        <v>2</v>
+      </c>
+      <c r="CX98">
+        <v>3</v>
+      </c>
+      <c r="CY98">
+        <v>3</v>
+      </c>
+      <c r="CZ98">
+        <v>3</v>
+      </c>
+      <c r="DA98">
+        <v>3</v>
+      </c>
+      <c r="DB98">
+        <v>2</v>
+      </c>
+      <c r="DC98">
+        <v>3</v>
+      </c>
+      <c r="DD98">
+        <v>3</v>
+      </c>
+      <c r="DE98">
+        <v>3</v>
+      </c>
+      <c r="DF98">
+        <v>4</v>
+      </c>
+      <c r="DG98">
+        <v>3</v>
+      </c>
+      <c r="DH98">
+        <v>1</v>
+      </c>
+      <c r="DI98">
+        <v>1</v>
+      </c>
+      <c r="DJ98">
+        <v>1</v>
+      </c>
+      <c r="DK98">
+        <v>1</v>
+      </c>
+      <c r="DL98">
+        <v>3</v>
+      </c>
+      <c r="DM98">
+        <v>2</v>
+      </c>
+      <c r="DN98">
+        <v>1</v>
+      </c>
+      <c r="DO98">
+        <v>2</v>
+      </c>
+      <c r="DP98">
+        <v>4</v>
+      </c>
+      <c r="DQ98">
+        <v>1</v>
+      </c>
+      <c r="DR98">
+        <v>3</v>
+      </c>
+      <c r="DS98">
+        <v>3</v>
+      </c>
+      <c r="DT98">
+        <v>3</v>
+      </c>
+      <c r="DU98">
+        <v>1</v>
+      </c>
+      <c r="DV98">
+        <v>4</v>
+      </c>
+      <c r="DW98">
+        <v>3</v>
+      </c>
+      <c r="DX98">
+        <v>1</v>
+      </c>
+      <c r="DY98">
+        <v>3</v>
+      </c>
+      <c r="DZ98">
+        <v>3</v>
+      </c>
+      <c r="EA98" t="s">
+        <v>309</v>
+      </c>
+      <c r="EB98">
+        <v>28</v>
+      </c>
+      <c r="EC98" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE98" t="s">
+        <v>308</v>
+      </c>
+      <c r="EG98">
+        <v>405.72</v>
+      </c>
+      <c r="EH98">
+        <v>123.87</v>
+      </c>
+      <c r="EK98">
+        <v>47.83</v>
+      </c>
+      <c r="EM98">
+        <v>36.82</v>
+      </c>
+      <c r="EO98">
+        <v>48.43</v>
+      </c>
+      <c r="EQ98">
+        <v>38.61</v>
+      </c>
+      <c r="ES98">
+        <v>60.24</v>
+      </c>
+      <c r="EU98">
+        <v>35.83</v>
+      </c>
+      <c r="EW98">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="99" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>469</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99">
+        <v>1133233627</v>
+      </c>
+      <c r="F99" t="s">
+        <v>470</v>
+      </c>
+      <c r="G99" t="s">
+        <v>469</v>
+      </c>
+      <c r="I99" t="s">
+        <v>471</v>
+      </c>
+      <c r="J99" t="s">
+        <v>113</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>3</v>
+      </c>
+      <c r="X99">
+        <v>3</v>
+      </c>
+      <c r="Y99">
+        <v>4</v>
+      </c>
+      <c r="Z99">
+        <v>5</v>
+      </c>
+      <c r="AA99">
+        <v>5</v>
+      </c>
+      <c r="AB99">
+        <v>1</v>
+      </c>
+      <c r="AC99">
+        <v>3</v>
+      </c>
+      <c r="AD99">
+        <v>1</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
+      </c>
+      <c r="AF99">
+        <v>2</v>
+      </c>
+      <c r="AG99">
+        <v>4</v>
+      </c>
+      <c r="AH99">
+        <v>2</v>
+      </c>
+      <c r="AI99">
+        <v>1</v>
+      </c>
+      <c r="AJ99">
+        <v>2</v>
+      </c>
+      <c r="AK99">
+        <v>2</v>
+      </c>
+      <c r="AL99">
+        <v>2</v>
+      </c>
+      <c r="AM99">
+        <v>3</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
+        <v>3</v>
+      </c>
+      <c r="AP99">
+        <v>3</v>
+      </c>
+      <c r="AQ99">
+        <v>3</v>
+      </c>
+      <c r="AR99">
+        <v>2</v>
+      </c>
+      <c r="AS99">
+        <v>4</v>
+      </c>
+      <c r="AT99">
+        <v>5</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>3</v>
+      </c>
+      <c r="AY99">
+        <v>1</v>
+      </c>
+      <c r="AZ99">
+        <v>2</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>3</v>
+      </c>
+      <c r="BD99">
+        <v>5</v>
+      </c>
+      <c r="BE99">
+        <v>5</v>
+      </c>
+      <c r="BF99">
+        <v>1</v>
+      </c>
+      <c r="BG99">
+        <v>3</v>
+      </c>
+      <c r="BH99">
+        <v>5</v>
+      </c>
+      <c r="BI99">
+        <v>1</v>
+      </c>
+      <c r="BJ99">
+        <v>1</v>
+      </c>
+      <c r="BK99">
+        <v>1</v>
+      </c>
+      <c r="BL99">
+        <v>1</v>
+      </c>
+      <c r="BM99">
+        <v>1</v>
+      </c>
+      <c r="BN99">
+        <v>1</v>
+      </c>
+      <c r="BO99">
+        <v>3</v>
+      </c>
+      <c r="BP99">
+        <v>1</v>
+      </c>
+      <c r="BQ99">
+        <v>2</v>
+      </c>
+      <c r="BR99">
+        <v>2</v>
+      </c>
+      <c r="BS99">
+        <v>2</v>
+      </c>
+      <c r="BT99">
+        <v>2</v>
+      </c>
+      <c r="BU99">
+        <v>4</v>
+      </c>
+      <c r="BV99">
+        <v>1</v>
+      </c>
+      <c r="BW99">
+        <v>2</v>
+      </c>
+      <c r="BX99">
+        <v>2</v>
+      </c>
+      <c r="BY99">
+        <v>2</v>
+      </c>
+      <c r="BZ99">
+        <v>4</v>
+      </c>
+      <c r="CA99">
+        <v>3</v>
+      </c>
+      <c r="CB99">
+        <v>1</v>
+      </c>
+      <c r="CC99">
+        <v>3</v>
+      </c>
+      <c r="CD99">
+        <v>2</v>
+      </c>
+      <c r="CE99">
+        <v>3</v>
+      </c>
+      <c r="CF99">
+        <v>2</v>
+      </c>
+      <c r="CG99">
+        <v>3</v>
+      </c>
+      <c r="CH99">
+        <v>4</v>
+      </c>
+      <c r="CI99">
+        <v>4</v>
+      </c>
+      <c r="CJ99">
+        <v>3</v>
+      </c>
+      <c r="CK99">
+        <v>4</v>
+      </c>
+      <c r="CL99">
+        <v>5</v>
+      </c>
+      <c r="CM99">
+        <v>1</v>
+      </c>
+      <c r="CN99">
+        <v>1</v>
+      </c>
+      <c r="CO99">
+        <v>3</v>
+      </c>
+      <c r="CP99">
+        <v>1</v>
+      </c>
+      <c r="CQ99">
+        <v>4</v>
+      </c>
+      <c r="CR99">
+        <v>4</v>
+      </c>
+      <c r="CS99">
+        <v>1</v>
+      </c>
+      <c r="CT99">
+        <v>2</v>
+      </c>
+      <c r="CU99">
+        <v>3</v>
+      </c>
+      <c r="CV99">
+        <v>2</v>
+      </c>
+      <c r="CW99">
+        <v>2</v>
+      </c>
+      <c r="CX99">
+        <v>3</v>
+      </c>
+      <c r="CY99">
+        <v>2</v>
+      </c>
+      <c r="CZ99">
+        <v>1</v>
+      </c>
+      <c r="DA99">
+        <v>1</v>
+      </c>
+      <c r="DB99">
+        <v>3</v>
+      </c>
+      <c r="DC99">
+        <v>3</v>
+      </c>
+      <c r="DD99">
+        <v>2</v>
+      </c>
+      <c r="DE99">
+        <v>3</v>
+      </c>
+      <c r="DF99">
+        <v>2</v>
+      </c>
+      <c r="DG99">
+        <v>1</v>
+      </c>
+      <c r="DH99">
+        <v>1</v>
+      </c>
+      <c r="DI99">
+        <v>1</v>
+      </c>
+      <c r="DJ99">
+        <v>1</v>
+      </c>
+      <c r="DK99">
+        <v>1</v>
+      </c>
+      <c r="DL99">
+        <v>2</v>
+      </c>
+      <c r="DM99">
+        <v>1</v>
+      </c>
+      <c r="DN99">
+        <v>1</v>
+      </c>
+      <c r="DO99">
+        <v>5</v>
+      </c>
+      <c r="DP99">
+        <v>1</v>
+      </c>
+      <c r="DQ99">
+        <v>1</v>
+      </c>
+      <c r="DR99">
+        <v>3</v>
+      </c>
+      <c r="DS99">
+        <v>3</v>
+      </c>
+      <c r="DT99">
+        <v>1</v>
+      </c>
+      <c r="DU99">
+        <v>1</v>
+      </c>
+      <c r="DV99">
+        <v>3</v>
+      </c>
+      <c r="DW99">
+        <v>3</v>
+      </c>
+      <c r="DX99">
+        <v>2</v>
+      </c>
+      <c r="DY99">
+        <v>2</v>
+      </c>
+      <c r="DZ99">
+        <v>5</v>
+      </c>
+      <c r="EA99" t="s">
+        <v>304</v>
+      </c>
+      <c r="EB99">
+        <v>34</v>
+      </c>
+      <c r="EC99" t="s">
+        <v>315</v>
+      </c>
+      <c r="EE99" t="s">
+        <v>310</v>
+      </c>
+      <c r="EG99">
+        <v>589.83000000000004</v>
+      </c>
+      <c r="EH99">
+        <v>83.91</v>
+      </c>
+      <c r="EK99">
+        <v>85.82</v>
+      </c>
+      <c r="EM99">
+        <v>133.22999999999999</v>
+      </c>
+      <c r="EO99">
+        <v>54.73</v>
+      </c>
+      <c r="EQ99">
+        <v>72</v>
+      </c>
+      <c r="ES99">
+        <v>71.37</v>
+      </c>
+      <c r="EU99">
+        <v>59.63</v>
+      </c>
+      <c r="EW99">
+        <v>29.14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>472</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100">
+        <v>261038668</v>
+      </c>
+      <c r="F100" t="s">
+        <v>473</v>
+      </c>
+      <c r="G100" t="s">
+        <v>472</v>
+      </c>
+      <c r="H100" t="s">
+        <v>339</v>
+      </c>
+      <c r="I100" t="s">
+        <v>474</v>
+      </c>
+      <c r="J100" t="s">
+        <v>113</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>3</v>
+      </c>
+      <c r="X100">
+        <v>1</v>
+      </c>
+      <c r="Y100">
+        <v>2</v>
+      </c>
+      <c r="Z100">
+        <v>3</v>
+      </c>
+      <c r="AA100">
+        <v>3</v>
+      </c>
+      <c r="AB100">
+        <v>3</v>
+      </c>
+      <c r="AC100">
+        <v>3</v>
+      </c>
+      <c r="AD100">
+        <v>2</v>
+      </c>
+      <c r="AE100">
+        <v>4</v>
+      </c>
+      <c r="AF100">
+        <v>5</v>
+      </c>
+      <c r="AG100">
+        <v>5</v>
+      </c>
+      <c r="AH100">
+        <v>4</v>
+      </c>
+      <c r="AI100">
+        <v>5</v>
+      </c>
+      <c r="AJ100">
+        <v>5</v>
+      </c>
+      <c r="AK100">
+        <v>4</v>
+      </c>
+      <c r="AL100">
+        <v>5</v>
+      </c>
+      <c r="AM100">
+        <v>5</v>
+      </c>
+      <c r="AN100">
+        <v>5</v>
+      </c>
+      <c r="AO100">
+        <v>4</v>
+      </c>
+      <c r="AP100">
+        <v>4</v>
+      </c>
+      <c r="AQ100">
+        <v>3</v>
+      </c>
+      <c r="AR100">
+        <v>3</v>
+      </c>
+      <c r="AS100">
+        <v>4</v>
+      </c>
+      <c r="AT100">
+        <v>3</v>
+      </c>
+      <c r="AU100">
+        <v>4</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>4</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>4</v>
+      </c>
+      <c r="AZ100">
+        <v>3</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
+        <v>2</v>
+      </c>
+      <c r="BC100">
+        <v>4</v>
+      </c>
+      <c r="BD100">
+        <v>3</v>
+      </c>
+      <c r="BE100">
+        <v>2</v>
+      </c>
+      <c r="BF100">
+        <v>3</v>
+      </c>
+      <c r="BG100">
+        <v>4</v>
+      </c>
+      <c r="BH100">
+        <v>4</v>
+      </c>
+      <c r="BI100">
+        <v>4</v>
+      </c>
+      <c r="BJ100">
+        <v>5</v>
+      </c>
+      <c r="BK100">
+        <v>4</v>
+      </c>
+      <c r="BL100">
+        <v>4</v>
+      </c>
+      <c r="BM100">
+        <v>4</v>
+      </c>
+      <c r="BN100">
+        <v>3</v>
+      </c>
+      <c r="BO100">
+        <v>2</v>
+      </c>
+      <c r="BP100">
+        <v>2</v>
+      </c>
+      <c r="BQ100">
+        <v>3</v>
+      </c>
+      <c r="BR100">
+        <v>3</v>
+      </c>
+      <c r="BS100">
+        <v>2</v>
+      </c>
+      <c r="BT100">
+        <v>2</v>
+      </c>
+      <c r="BU100">
+        <v>2</v>
+      </c>
+      <c r="BV100">
+        <v>1</v>
+      </c>
+      <c r="BW100">
+        <v>1</v>
+      </c>
+      <c r="BX100">
+        <v>3</v>
+      </c>
+      <c r="BY100">
+        <v>2</v>
+      </c>
+      <c r="BZ100">
+        <v>2</v>
+      </c>
+      <c r="CA100">
+        <v>1</v>
+      </c>
+      <c r="CB100">
+        <v>2</v>
+      </c>
+      <c r="CC100">
+        <v>1</v>
+      </c>
+      <c r="CD100">
+        <v>2</v>
+      </c>
+      <c r="CE100">
+        <v>3</v>
+      </c>
+      <c r="CF100">
+        <v>1</v>
+      </c>
+      <c r="CG100">
+        <v>1</v>
+      </c>
+      <c r="CH100">
+        <v>3</v>
+      </c>
+      <c r="CI100">
+        <v>2</v>
+      </c>
+      <c r="CJ100">
+        <v>3</v>
+      </c>
+      <c r="CK100">
+        <v>2</v>
+      </c>
+      <c r="CL100">
+        <v>2</v>
+      </c>
+      <c r="CM100">
+        <v>1</v>
+      </c>
+      <c r="CN100">
+        <v>2</v>
+      </c>
+      <c r="CO100">
+        <v>1</v>
+      </c>
+      <c r="CP100">
+        <v>1</v>
+      </c>
+      <c r="CQ100">
+        <v>1</v>
+      </c>
+      <c r="CR100">
+        <v>1</v>
+      </c>
+      <c r="CS100">
+        <v>1</v>
+      </c>
+      <c r="CT100">
+        <v>2</v>
+      </c>
+      <c r="CU100">
+        <v>2</v>
+      </c>
+      <c r="CV100">
+        <v>2</v>
+      </c>
+      <c r="CW100">
+        <v>1</v>
+      </c>
+      <c r="CX100">
+        <v>1</v>
+      </c>
+      <c r="CY100">
+        <v>3</v>
+      </c>
+      <c r="CZ100">
+        <v>1</v>
+      </c>
+      <c r="DA100">
+        <v>1</v>
+      </c>
+      <c r="DB100">
+        <v>3</v>
+      </c>
+      <c r="DC100">
+        <v>2</v>
+      </c>
+      <c r="DD100">
+        <v>2</v>
+      </c>
+      <c r="DE100">
+        <v>2</v>
+      </c>
+      <c r="DF100">
+        <v>3</v>
+      </c>
+      <c r="DG100">
+        <v>2</v>
+      </c>
+      <c r="DH100">
+        <v>1</v>
+      </c>
+      <c r="DI100">
+        <v>1</v>
+      </c>
+      <c r="DJ100">
+        <v>1</v>
+      </c>
+      <c r="DK100">
+        <v>2</v>
+      </c>
+      <c r="DL100">
+        <v>2</v>
+      </c>
+      <c r="DM100">
+        <v>3</v>
+      </c>
+      <c r="DN100">
+        <v>1</v>
+      </c>
+      <c r="DO100">
+        <v>4</v>
+      </c>
+      <c r="DP100">
+        <v>4</v>
+      </c>
+      <c r="DQ100">
+        <v>3</v>
+      </c>
+      <c r="DR100">
+        <v>3</v>
+      </c>
+      <c r="DS100">
+        <v>4</v>
+      </c>
+      <c r="DT100">
+        <v>3</v>
+      </c>
+      <c r="DU100">
+        <v>3</v>
+      </c>
+      <c r="DV100">
+        <v>4</v>
+      </c>
+      <c r="DW100">
+        <v>3</v>
+      </c>
+      <c r="DX100">
+        <v>3</v>
+      </c>
+      <c r="DY100">
+        <v>4</v>
+      </c>
+      <c r="DZ100">
+        <v>2</v>
+      </c>
+      <c r="EA100" t="s">
+        <v>313</v>
+      </c>
+      <c r="EB100">
+        <v>25</v>
+      </c>
+      <c r="EC100" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE100" t="s">
+        <v>314</v>
+      </c>
+      <c r="EG100">
+        <v>5089.74</v>
+      </c>
+      <c r="EH100">
+        <v>930.13</v>
+      </c>
+      <c r="EK100">
+        <v>54</v>
+      </c>
+      <c r="EM100">
+        <v>43.56</v>
+      </c>
+      <c r="EO100">
+        <v>43.26</v>
+      </c>
+      <c r="EQ100">
+        <v>3901.74</v>
+      </c>
+      <c r="ES100">
+        <v>50.55</v>
+      </c>
+      <c r="EU100">
+        <v>41.1</v>
+      </c>
+      <c r="EW100">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>475</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101">
+        <v>1172568913</v>
+      </c>
+      <c r="F101" t="s">
+        <v>476</v>
+      </c>
+      <c r="G101" t="s">
+        <v>475</v>
+      </c>
+      <c r="H101" t="s">
+        <v>339</v>
+      </c>
+      <c r="I101" t="s">
+        <v>477</v>
+      </c>
+      <c r="J101" t="s">
+        <v>113</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>4</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101">
+        <v>3</v>
+      </c>
+      <c r="S101">
+        <v>3</v>
+      </c>
+      <c r="T101">
+        <v>4</v>
+      </c>
+      <c r="U101">
+        <v>4</v>
+      </c>
+      <c r="V101">
+        <v>3</v>
+      </c>
+      <c r="W101">
+        <v>3</v>
+      </c>
+      <c r="X101">
+        <v>4</v>
+      </c>
+      <c r="Y101">
+        <v>4</v>
+      </c>
+      <c r="Z101">
+        <v>4</v>
+      </c>
+      <c r="AA101">
+        <v>3</v>
+      </c>
+      <c r="AB101">
+        <v>4</v>
+      </c>
+      <c r="AC101">
+        <v>4</v>
+      </c>
+      <c r="AD101">
+        <v>4</v>
+      </c>
+      <c r="AE101">
+        <v>3</v>
+      </c>
+      <c r="AF101">
+        <v>4</v>
+      </c>
+      <c r="AG101">
+        <v>4</v>
+      </c>
+      <c r="AH101">
+        <v>3</v>
+      </c>
+      <c r="AI101">
+        <v>3</v>
+      </c>
+      <c r="AJ101">
+        <v>4</v>
+      </c>
+      <c r="AK101">
+        <v>3</v>
+      </c>
+      <c r="AL101">
+        <v>4</v>
+      </c>
+      <c r="AM101">
+        <v>2</v>
+      </c>
+      <c r="AN101">
+        <v>3</v>
+      </c>
+      <c r="AO101">
+        <v>4</v>
+      </c>
+      <c r="AP101">
+        <v>3</v>
+      </c>
+      <c r="AQ101">
+        <v>3</v>
+      </c>
+      <c r="AR101">
+        <v>3</v>
+      </c>
+      <c r="AS101">
+        <v>4</v>
+      </c>
+      <c r="AT101">
+        <v>4</v>
+      </c>
+      <c r="AU101">
+        <v>4</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>4</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>2</v>
+      </c>
+      <c r="AZ101">
+        <v>2</v>
+      </c>
+      <c r="BA101">
+        <v>2</v>
+      </c>
+      <c r="BB101">
+        <v>3</v>
+      </c>
+      <c r="BC101">
+        <v>3</v>
+      </c>
+      <c r="BD101">
+        <v>3</v>
+      </c>
+      <c r="BE101">
+        <v>2</v>
+      </c>
+      <c r="BF101">
+        <v>2</v>
+      </c>
+      <c r="BG101">
+        <v>4</v>
+      </c>
+      <c r="BH101">
+        <v>2</v>
+      </c>
+      <c r="BI101">
+        <v>2</v>
+      </c>
+      <c r="BJ101">
+        <v>2</v>
+      </c>
+      <c r="BK101">
+        <v>2</v>
+      </c>
+      <c r="BL101">
+        <v>2</v>
+      </c>
+      <c r="BM101">
+        <v>3</v>
+      </c>
+      <c r="BN101">
+        <v>3</v>
+      </c>
+      <c r="BO101">
+        <v>3</v>
+      </c>
+      <c r="BP101">
+        <v>2</v>
+      </c>
+      <c r="BQ101">
+        <v>3</v>
+      </c>
+      <c r="BR101">
+        <v>3</v>
+      </c>
+      <c r="BS101">
+        <v>3</v>
+      </c>
+      <c r="BT101">
+        <v>4</v>
+      </c>
+      <c r="BU101">
+        <v>3</v>
+      </c>
+      <c r="BV101">
+        <v>3</v>
+      </c>
+      <c r="BW101">
+        <v>4</v>
+      </c>
+      <c r="BX101">
+        <v>4</v>
+      </c>
+      <c r="BY101">
+        <v>2</v>
+      </c>
+      <c r="BZ101">
+        <v>2</v>
+      </c>
+      <c r="CA101">
+        <v>2</v>
+      </c>
+      <c r="CB101">
+        <v>2</v>
+      </c>
+      <c r="CC101">
+        <v>2</v>
+      </c>
+      <c r="CD101">
+        <v>2</v>
+      </c>
+      <c r="CE101">
+        <v>2</v>
+      </c>
+      <c r="CF101">
+        <v>2</v>
+      </c>
+      <c r="CG101">
+        <v>3</v>
+      </c>
+      <c r="CH101">
+        <v>4</v>
+      </c>
+      <c r="CI101">
+        <v>4</v>
+      </c>
+      <c r="CJ101">
+        <v>3</v>
+      </c>
+      <c r="CK101">
+        <v>4</v>
+      </c>
+      <c r="CL101">
+        <v>4</v>
+      </c>
+      <c r="CM101">
+        <v>2</v>
+      </c>
+      <c r="CN101">
+        <v>4</v>
+      </c>
+      <c r="CO101">
+        <v>2</v>
+      </c>
+      <c r="CP101">
+        <v>2</v>
+      </c>
+      <c r="CQ101">
+        <v>2</v>
+      </c>
+      <c r="CR101">
+        <v>4</v>
+      </c>
+      <c r="CS101">
+        <v>2</v>
+      </c>
+      <c r="CT101">
+        <v>4</v>
+      </c>
+      <c r="CU101">
+        <v>2</v>
+      </c>
+      <c r="CV101">
+        <v>2</v>
+      </c>
+      <c r="CW101">
+        <v>2</v>
+      </c>
+      <c r="CX101">
+        <v>2</v>
+      </c>
+      <c r="CY101">
+        <v>2</v>
+      </c>
+      <c r="CZ101">
+        <v>2</v>
+      </c>
+      <c r="DA101">
+        <v>3</v>
+      </c>
+      <c r="DB101">
+        <v>4</v>
+      </c>
+      <c r="DC101">
+        <v>4</v>
+      </c>
+      <c r="DD101">
+        <v>4</v>
+      </c>
+      <c r="DE101">
+        <v>4</v>
+      </c>
+      <c r="DF101">
+        <v>5</v>
+      </c>
+      <c r="DG101">
+        <v>1</v>
+      </c>
+      <c r="DH101">
+        <v>1</v>
+      </c>
+      <c r="DI101">
+        <v>1</v>
+      </c>
+      <c r="DJ101">
+        <v>2</v>
+      </c>
+      <c r="DK101">
+        <v>1</v>
+      </c>
+      <c r="DL101">
+        <v>2</v>
+      </c>
+      <c r="DM101">
+        <v>1</v>
+      </c>
+      <c r="DN101">
+        <v>1</v>
+      </c>
+      <c r="DO101">
+        <v>3</v>
+      </c>
+      <c r="DP101">
+        <v>2</v>
+      </c>
+      <c r="DQ101">
+        <v>1</v>
+      </c>
+      <c r="DR101">
+        <v>1</v>
+      </c>
+      <c r="DS101">
+        <v>1</v>
+      </c>
+      <c r="DT101">
+        <v>2</v>
+      </c>
+      <c r="DU101">
+        <v>1</v>
+      </c>
+      <c r="DV101">
+        <v>3</v>
+      </c>
+      <c r="DW101">
+        <v>3</v>
+      </c>
+      <c r="DX101">
+        <v>2</v>
+      </c>
+      <c r="DY101">
+        <v>3</v>
+      </c>
+      <c r="DZ101">
+        <v>2</v>
+      </c>
+      <c r="EA101" t="s">
+        <v>304</v>
+      </c>
+      <c r="EB101">
+        <v>43</v>
+      </c>
+      <c r="EC101" t="s">
+        <v>307</v>
+      </c>
+      <c r="EE101" t="s">
+        <v>308</v>
+      </c>
+      <c r="EG101">
+        <v>468.34</v>
+      </c>
+      <c r="EH101">
+        <v>150.69</v>
+      </c>
+      <c r="EK101">
+        <v>45.25</v>
+      </c>
+      <c r="EM101">
+        <v>47.88</v>
+      </c>
+      <c r="EO101">
+        <v>44.68</v>
+      </c>
+      <c r="EQ101">
+        <v>45.09</v>
+      </c>
+      <c r="ES101">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="EU101">
+        <v>38.76</v>
+      </c>
+      <c r="EW101">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="102" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>478</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102">
+        <v>545970933</v>
+      </c>
+      <c r="F102" t="s">
+        <v>479</v>
+      </c>
+      <c r="G102" t="s">
+        <v>478</v>
+      </c>
+      <c r="H102" t="s">
+        <v>339</v>
+      </c>
+      <c r="I102" t="s">
+        <v>480</v>
+      </c>
+      <c r="J102" t="s">
+        <v>113</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>3</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>4</v>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+      <c r="U102">
+        <v>4</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>3</v>
+      </c>
+      <c r="X102">
+        <v>3</v>
+      </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>3</v>
+      </c>
+      <c r="AA102">
+        <v>3</v>
+      </c>
+      <c r="AB102">
+        <v>3</v>
+      </c>
+      <c r="AC102">
+        <v>3</v>
+      </c>
+      <c r="AD102">
+        <v>3</v>
+      </c>
+      <c r="AE102">
+        <v>4</v>
+      </c>
+      <c r="AF102">
+        <v>4</v>
+      </c>
+      <c r="AG102">
+        <v>3</v>
+      </c>
+      <c r="AH102">
+        <v>4</v>
+      </c>
+      <c r="AI102">
+        <v>3</v>
+      </c>
+      <c r="AJ102">
+        <v>3</v>
+      </c>
+      <c r="AK102">
+        <v>3</v>
+      </c>
+      <c r="AL102">
+        <v>4</v>
+      </c>
+      <c r="AM102">
+        <v>3</v>
+      </c>
+      <c r="AN102">
+        <v>4</v>
+      </c>
+      <c r="AO102">
+        <v>4</v>
+      </c>
+      <c r="AP102">
+        <v>4</v>
+      </c>
+      <c r="AQ102">
+        <v>4</v>
+      </c>
+      <c r="AR102">
+        <v>3</v>
+      </c>
+      <c r="AS102">
+        <v>3</v>
+      </c>
+      <c r="AT102">
+        <v>4</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>1</v>
+      </c>
+      <c r="AZ102">
+        <v>2</v>
+      </c>
+      <c r="BA102">
+        <v>1</v>
+      </c>
+      <c r="BB102">
+        <v>1</v>
+      </c>
+      <c r="BC102">
+        <v>3</v>
+      </c>
+      <c r="BD102">
+        <v>3</v>
+      </c>
+      <c r="BE102">
+        <v>2</v>
+      </c>
+      <c r="BF102">
+        <v>3</v>
+      </c>
+      <c r="BG102">
+        <v>3</v>
+      </c>
+      <c r="BH102">
+        <v>3</v>
+      </c>
+      <c r="BI102">
+        <v>4</v>
+      </c>
+      <c r="BJ102">
+        <v>4</v>
+      </c>
+      <c r="BK102">
+        <v>4</v>
+      </c>
+      <c r="BL102">
+        <v>3</v>
+      </c>
+      <c r="BM102">
+        <v>4</v>
+      </c>
+      <c r="BN102">
+        <v>1</v>
+      </c>
+      <c r="BO102">
+        <v>2</v>
+      </c>
+      <c r="BP102">
+        <v>2</v>
+      </c>
+      <c r="BQ102">
+        <v>1</v>
+      </c>
+      <c r="BR102">
+        <v>2</v>
+      </c>
+      <c r="BS102">
+        <v>2</v>
+      </c>
+      <c r="BT102">
+        <v>4</v>
+      </c>
+      <c r="BU102">
+        <v>3</v>
+      </c>
+      <c r="BV102">
+        <v>2</v>
+      </c>
+      <c r="BW102">
+        <v>3</v>
+      </c>
+      <c r="BX102">
+        <v>3</v>
+      </c>
+      <c r="BY102">
+        <v>3</v>
+      </c>
+      <c r="BZ102">
+        <v>4</v>
+      </c>
+      <c r="CA102">
+        <v>3</v>
+      </c>
+      <c r="CB102">
+        <v>3</v>
+      </c>
+      <c r="CC102">
+        <v>4</v>
+      </c>
+      <c r="CD102">
+        <v>3</v>
+      </c>
+      <c r="CE102">
+        <v>3</v>
+      </c>
+      <c r="CF102">
+        <v>3</v>
+      </c>
+      <c r="CG102">
+        <v>3</v>
+      </c>
+      <c r="CH102">
+        <v>3</v>
+      </c>
+      <c r="CI102">
+        <v>3</v>
+      </c>
+      <c r="CJ102">
+        <v>3</v>
+      </c>
+      <c r="CK102">
+        <v>3</v>
+      </c>
+      <c r="CL102">
+        <v>3</v>
+      </c>
+      <c r="CM102">
+        <v>2</v>
+      </c>
+      <c r="CN102">
+        <v>2</v>
+      </c>
+      <c r="CO102">
+        <v>2</v>
+      </c>
+      <c r="CP102">
+        <v>2</v>
+      </c>
+      <c r="CQ102">
+        <v>3</v>
+      </c>
+      <c r="CR102">
+        <v>3</v>
+      </c>
+      <c r="CS102">
+        <v>3</v>
+      </c>
+      <c r="CT102">
+        <v>3</v>
+      </c>
+      <c r="CU102">
+        <v>3</v>
+      </c>
+      <c r="CV102">
+        <v>3</v>
+      </c>
+      <c r="CW102">
+        <v>3</v>
+      </c>
+      <c r="CX102">
+        <v>3</v>
+      </c>
+      <c r="CY102">
+        <v>3</v>
+      </c>
+      <c r="CZ102">
+        <v>3</v>
+      </c>
+      <c r="DA102">
+        <v>3</v>
+      </c>
+      <c r="DB102">
+        <v>2</v>
+      </c>
+      <c r="DC102">
+        <v>2</v>
+      </c>
+      <c r="DD102">
+        <v>3</v>
+      </c>
+      <c r="DE102">
+        <v>2</v>
+      </c>
+      <c r="DF102">
+        <v>3</v>
+      </c>
+      <c r="DG102">
+        <v>1</v>
+      </c>
+      <c r="DH102">
+        <v>1</v>
+      </c>
+      <c r="DI102">
+        <v>1</v>
+      </c>
+      <c r="DJ102">
+        <v>1</v>
+      </c>
+      <c r="DK102">
+        <v>1</v>
+      </c>
+      <c r="DL102">
+        <v>1</v>
+      </c>
+      <c r="DM102">
+        <v>1</v>
+      </c>
+      <c r="DN102">
+        <v>1</v>
+      </c>
+      <c r="DO102">
+        <v>1</v>
+      </c>
+      <c r="DP102">
+        <v>1</v>
+      </c>
+      <c r="DQ102">
+        <v>2</v>
+      </c>
+      <c r="DR102">
+        <v>1</v>
+      </c>
+      <c r="DS102">
+        <v>1</v>
+      </c>
+      <c r="DT102">
+        <v>2</v>
+      </c>
+      <c r="DU102">
+        <v>2</v>
+      </c>
+      <c r="DV102">
+        <v>2</v>
+      </c>
+      <c r="DW102">
+        <v>1</v>
+      </c>
+      <c r="DX102">
+        <v>1</v>
+      </c>
+      <c r="DY102">
+        <v>2</v>
+      </c>
+      <c r="DZ102">
+        <v>2</v>
+      </c>
+      <c r="EA102" t="s">
+        <v>316</v>
+      </c>
+      <c r="EB102">
+        <v>21</v>
+      </c>
+      <c r="EC102" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE102" t="s">
+        <v>311</v>
+      </c>
+      <c r="EG102">
+        <v>324.88</v>
+      </c>
+      <c r="EH102">
+        <v>82.79</v>
+      </c>
+      <c r="EK102">
+        <v>40.72</v>
+      </c>
+      <c r="EM102">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="EO102">
+        <v>47.17</v>
+      </c>
+      <c r="EQ102">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="ES102">
+        <v>27.91</v>
+      </c>
+      <c r="EU102">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="EW102">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>481</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103">
+        <v>1825403750</v>
+      </c>
+      <c r="F103" t="s">
+        <v>482</v>
+      </c>
+      <c r="G103" t="s">
+        <v>481</v>
+      </c>
+      <c r="H103" t="s">
+        <v>339</v>
+      </c>
+      <c r="I103" t="s">
+        <v>483</v>
+      </c>
+      <c r="J103" t="s">
+        <v>113</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>3</v>
+      </c>
+      <c r="S103">
+        <v>3</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>3</v>
+      </c>
+      <c r="W103">
+        <v>3</v>
+      </c>
+      <c r="X103">
+        <v>2</v>
+      </c>
+      <c r="Y103">
+        <v>2</v>
+      </c>
+      <c r="Z103">
+        <v>3</v>
+      </c>
+      <c r="AA103">
+        <v>3</v>
+      </c>
+      <c r="AB103">
+        <v>3</v>
+      </c>
+      <c r="AC103">
+        <v>3</v>
+      </c>
+      <c r="AD103">
+        <v>3</v>
+      </c>
+      <c r="AE103">
+        <v>4</v>
+      </c>
+      <c r="AF103">
+        <v>4</v>
+      </c>
+      <c r="AG103">
+        <v>5</v>
+      </c>
+      <c r="AH103">
+        <v>4</v>
+      </c>
+      <c r="AI103">
+        <v>3</v>
+      </c>
+      <c r="AJ103">
+        <v>5</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>4</v>
+      </c>
+      <c r="AM103">
+        <v>3</v>
+      </c>
+      <c r="AN103">
+        <v>3</v>
+      </c>
+      <c r="AO103">
+        <v>4</v>
+      </c>
+      <c r="AP103">
+        <v>3</v>
+      </c>
+      <c r="AQ103">
+        <v>3</v>
+      </c>
+      <c r="AR103">
+        <v>4</v>
+      </c>
+      <c r="AS103">
+        <v>4</v>
+      </c>
+      <c r="AT103">
+        <v>3</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>3</v>
+      </c>
+      <c r="AW103">
+        <v>4</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>4</v>
+      </c>
+      <c r="AZ103">
+        <v>3</v>
+      </c>
+      <c r="BA103">
+        <v>4</v>
+      </c>
+      <c r="BB103">
+        <v>4</v>
+      </c>
+      <c r="BC103">
+        <v>4</v>
+      </c>
+      <c r="BD103">
+        <v>4</v>
+      </c>
+      <c r="BE103">
+        <v>4</v>
+      </c>
+      <c r="BF103">
+        <v>4</v>
+      </c>
+      <c r="BG103">
+        <v>4</v>
+      </c>
+      <c r="BH103">
+        <v>4</v>
+      </c>
+      <c r="BI103">
+        <v>4</v>
+      </c>
+      <c r="BJ103">
+        <v>4</v>
+      </c>
+      <c r="BK103">
+        <v>4</v>
+      </c>
+      <c r="BL103">
+        <v>4</v>
+      </c>
+      <c r="BM103">
+        <v>4</v>
+      </c>
+      <c r="BN103">
+        <v>3</v>
+      </c>
+      <c r="BO103">
+        <v>3</v>
+      </c>
+      <c r="BP103">
+        <v>3</v>
+      </c>
+      <c r="BQ103">
+        <v>3</v>
+      </c>
+      <c r="BR103">
+        <v>3</v>
+      </c>
+      <c r="BS103">
+        <v>4</v>
+      </c>
+      <c r="BT103">
+        <v>4</v>
+      </c>
+      <c r="BU103">
+        <v>4</v>
+      </c>
+      <c r="BV103">
+        <v>4</v>
+      </c>
+      <c r="BW103">
+        <v>3</v>
+      </c>
+      <c r="BX103">
+        <v>4</v>
+      </c>
+      <c r="BY103">
+        <v>4</v>
+      </c>
+      <c r="BZ103">
+        <v>4</v>
+      </c>
+      <c r="CA103">
+        <v>3</v>
+      </c>
+      <c r="CB103">
+        <v>3</v>
+      </c>
+      <c r="CC103">
+        <v>4</v>
+      </c>
+      <c r="CD103">
+        <v>3</v>
+      </c>
+      <c r="CE103">
+        <v>3</v>
+      </c>
+      <c r="CF103">
+        <v>4</v>
+      </c>
+      <c r="CG103">
+        <v>4</v>
+      </c>
+      <c r="CH103">
+        <v>3</v>
+      </c>
+      <c r="CI103">
+        <v>3</v>
+      </c>
+      <c r="CJ103">
+        <v>3</v>
+      </c>
+      <c r="CK103">
+        <v>3</v>
+      </c>
+      <c r="CL103">
+        <v>3</v>
+      </c>
+      <c r="CM103">
+        <v>1</v>
+      </c>
+      <c r="CN103">
+        <v>2</v>
+      </c>
+      <c r="CO103">
+        <v>2</v>
+      </c>
+      <c r="CP103">
+        <v>2</v>
+      </c>
+      <c r="CQ103">
+        <v>2</v>
+      </c>
+      <c r="CR103">
+        <v>2</v>
+      </c>
+      <c r="CS103">
+        <v>3</v>
+      </c>
+      <c r="CT103">
+        <v>2</v>
+      </c>
+      <c r="CU103">
+        <v>3</v>
+      </c>
+      <c r="CV103">
+        <v>2</v>
+      </c>
+      <c r="CW103">
+        <v>2</v>
+      </c>
+      <c r="CX103">
+        <v>3</v>
+      </c>
+      <c r="CY103">
+        <v>3</v>
+      </c>
+      <c r="CZ103">
+        <v>1</v>
+      </c>
+      <c r="DA103">
+        <v>1</v>
+      </c>
+      <c r="DB103">
+        <v>3</v>
+      </c>
+      <c r="DC103">
+        <v>2</v>
+      </c>
+      <c r="DD103">
+        <v>3</v>
+      </c>
+      <c r="DE103">
+        <v>3</v>
+      </c>
+      <c r="DF103">
+        <v>2</v>
+      </c>
+      <c r="DG103">
+        <v>1</v>
+      </c>
+      <c r="DH103">
+        <v>1</v>
+      </c>
+      <c r="DI103">
+        <v>1</v>
+      </c>
+      <c r="DJ103">
+        <v>1</v>
+      </c>
+      <c r="DK103">
+        <v>2</v>
+      </c>
+      <c r="DL103">
+        <v>2</v>
+      </c>
+      <c r="DM103">
+        <v>1</v>
+      </c>
+      <c r="DN103">
+        <v>1</v>
+      </c>
+      <c r="DO103">
+        <v>2</v>
+      </c>
+      <c r="DP103">
+        <v>2</v>
+      </c>
+      <c r="DQ103">
+        <v>3</v>
+      </c>
+      <c r="DR103">
+        <v>3</v>
+      </c>
+      <c r="DS103">
+        <v>3</v>
+      </c>
+      <c r="DT103">
+        <v>2</v>
+      </c>
+      <c r="DU103">
+        <v>3</v>
+      </c>
+      <c r="DV103">
+        <v>3</v>
+      </c>
+      <c r="DW103">
+        <v>2</v>
+      </c>
+      <c r="DX103">
+        <v>3</v>
+      </c>
+      <c r="DY103">
+        <v>3</v>
+      </c>
+      <c r="DZ103">
+        <v>3</v>
+      </c>
+      <c r="EA103" t="s">
+        <v>309</v>
+      </c>
+      <c r="EB103">
+        <v>35</v>
+      </c>
+      <c r="EC103" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE103" t="s">
+        <v>308</v>
+      </c>
+      <c r="EG103">
+        <v>712.35</v>
+      </c>
+      <c r="EH103">
+        <v>172.66</v>
+      </c>
+      <c r="EK103">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="EM103">
+        <v>150.94999999999999</v>
+      </c>
+      <c r="EO103">
+        <v>51.59</v>
+      </c>
+      <c r="EQ103">
+        <v>76.52</v>
+      </c>
+      <c r="ES103">
+        <v>70.03</v>
+      </c>
+      <c r="EU103">
+        <v>77.58</v>
+      </c>
+      <c r="EW103">
+        <v>36.840000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>484</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104">
+        <v>875935629</v>
+      </c>
+      <c r="F104" t="s">
+        <v>485</v>
+      </c>
+      <c r="G104" t="s">
+        <v>484</v>
+      </c>
+      <c r="H104" t="s">
+        <v>339</v>
+      </c>
+      <c r="I104" t="s">
+        <v>486</v>
+      </c>
+      <c r="J104" t="s">
+        <v>113</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>2</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>4</v>
+      </c>
+      <c r="W104">
+        <v>4</v>
+      </c>
+      <c r="X104">
+        <v>4</v>
+      </c>
+      <c r="Y104">
+        <v>3</v>
+      </c>
+      <c r="Z104">
+        <v>3</v>
+      </c>
+      <c r="AA104">
+        <v>3</v>
+      </c>
+      <c r="AB104">
+        <v>2</v>
+      </c>
+      <c r="AC104">
+        <v>3</v>
+      </c>
+      <c r="AD104">
+        <v>4</v>
+      </c>
+      <c r="AE104">
+        <v>2</v>
+      </c>
+      <c r="AF104">
+        <v>4</v>
+      </c>
+      <c r="AG104">
+        <v>4</v>
+      </c>
+      <c r="AH104">
+        <v>2</v>
+      </c>
+      <c r="AI104">
+        <v>4</v>
+      </c>
+      <c r="AJ104">
+        <v>3</v>
+      </c>
+      <c r="AK104">
+        <v>4</v>
+      </c>
+      <c r="AL104">
+        <v>4</v>
+      </c>
+      <c r="AM104">
+        <v>4</v>
+      </c>
+      <c r="AN104">
+        <v>4</v>
+      </c>
+      <c r="AO104">
+        <v>5</v>
+      </c>
+      <c r="AP104">
+        <v>4</v>
+      </c>
+      <c r="AQ104">
+        <v>4</v>
+      </c>
+      <c r="AR104">
+        <v>5</v>
+      </c>
+      <c r="AS104">
+        <v>5</v>
+      </c>
+      <c r="AT104">
+        <v>4</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>3</v>
+      </c>
+      <c r="AX104">
+        <v>5</v>
+      </c>
+      <c r="AY104">
+        <v>4</v>
+      </c>
+      <c r="AZ104">
+        <v>2</v>
+      </c>
+      <c r="BA104">
+        <v>4</v>
+      </c>
+      <c r="BB104">
+        <v>1</v>
+      </c>
+      <c r="BC104">
+        <v>4</v>
+      </c>
+      <c r="BD104">
+        <v>4</v>
+      </c>
+      <c r="BE104">
+        <v>3</v>
+      </c>
+      <c r="BF104">
+        <v>4</v>
+      </c>
+      <c r="BG104">
+        <v>3</v>
+      </c>
+      <c r="BH104">
+        <v>4</v>
+      </c>
+      <c r="BI104">
+        <v>5</v>
+      </c>
+      <c r="BJ104">
+        <v>5</v>
+      </c>
+      <c r="BK104">
+        <v>4</v>
+      </c>
+      <c r="BL104">
+        <v>5</v>
+      </c>
+      <c r="BM104">
+        <v>5</v>
+      </c>
+      <c r="BN104">
+        <v>4</v>
+      </c>
+      <c r="BO104">
+        <v>2</v>
+      </c>
+      <c r="BP104">
+        <v>3</v>
+      </c>
+      <c r="BQ104">
+        <v>3</v>
+      </c>
+      <c r="BR104">
+        <v>4</v>
+      </c>
+      <c r="BS104">
+        <v>2</v>
+      </c>
+      <c r="BT104">
+        <v>4</v>
+      </c>
+      <c r="BU104">
+        <v>4</v>
+      </c>
+      <c r="BV104">
+        <v>2</v>
+      </c>
+      <c r="BW104">
+        <v>3</v>
+      </c>
+      <c r="BX104">
+        <v>2</v>
+      </c>
+      <c r="BY104">
+        <v>3</v>
+      </c>
+      <c r="BZ104">
+        <v>4</v>
+      </c>
+      <c r="CA104">
+        <v>4</v>
+      </c>
+      <c r="CB104">
+        <v>4</v>
+      </c>
+      <c r="CC104">
+        <v>4</v>
+      </c>
+      <c r="CD104">
+        <v>4</v>
+      </c>
+      <c r="CE104">
+        <v>4</v>
+      </c>
+      <c r="CF104">
+        <v>4</v>
+      </c>
+      <c r="CG104">
+        <v>5</v>
+      </c>
+      <c r="CH104">
+        <v>3</v>
+      </c>
+      <c r="CI104">
+        <v>2</v>
+      </c>
+      <c r="CJ104">
+        <v>2</v>
+      </c>
+      <c r="CK104">
+        <v>3</v>
+      </c>
+      <c r="CL104">
+        <v>4</v>
+      </c>
+      <c r="CM104">
+        <v>1</v>
+      </c>
+      <c r="CN104">
+        <v>2</v>
+      </c>
+      <c r="CO104">
+        <v>3</v>
+      </c>
+      <c r="CP104">
+        <v>2</v>
+      </c>
+      <c r="CQ104">
+        <v>4</v>
+      </c>
+      <c r="CR104">
+        <v>3</v>
+      </c>
+      <c r="CS104">
+        <v>3</v>
+      </c>
+      <c r="CT104">
+        <v>2</v>
+      </c>
+      <c r="CU104">
+        <v>4</v>
+      </c>
+      <c r="CV104">
+        <v>2</v>
+      </c>
+      <c r="CW104">
+        <v>2</v>
+      </c>
+      <c r="CX104">
+        <v>4</v>
+      </c>
+      <c r="CY104">
+        <v>4</v>
+      </c>
+      <c r="CZ104">
+        <v>4</v>
+      </c>
+      <c r="DA104">
+        <v>4</v>
+      </c>
+      <c r="DB104">
+        <v>2</v>
+      </c>
+      <c r="DC104">
+        <v>3</v>
+      </c>
+      <c r="DD104">
+        <v>2</v>
+      </c>
+      <c r="DE104">
+        <v>2</v>
+      </c>
+      <c r="DF104">
+        <v>3</v>
+      </c>
+      <c r="DG104">
+        <v>1</v>
+      </c>
+      <c r="DH104">
+        <v>1</v>
+      </c>
+      <c r="DI104">
+        <v>2</v>
+      </c>
+      <c r="DJ104">
+        <v>1</v>
+      </c>
+      <c r="DK104">
+        <v>1</v>
+      </c>
+      <c r="DL104">
+        <v>1</v>
+      </c>
+      <c r="DM104">
+        <v>2</v>
+      </c>
+      <c r="DN104">
+        <v>1</v>
+      </c>
+      <c r="DO104">
+        <v>1</v>
+      </c>
+      <c r="DP104">
+        <v>2</v>
+      </c>
+      <c r="DQ104">
+        <v>3</v>
+      </c>
+      <c r="DR104">
+        <v>4</v>
+      </c>
+      <c r="DS104">
+        <v>3</v>
+      </c>
+      <c r="DT104">
+        <v>3</v>
+      </c>
+      <c r="DU104">
+        <v>3</v>
+      </c>
+      <c r="DV104">
+        <v>3</v>
+      </c>
+      <c r="DW104">
+        <v>3</v>
+      </c>
+      <c r="DX104">
+        <v>2</v>
+      </c>
+      <c r="DY104">
+        <v>3</v>
+      </c>
+      <c r="DZ104">
+        <v>3</v>
+      </c>
+      <c r="EA104" t="s">
+        <v>312</v>
+      </c>
+      <c r="EB104">
+        <v>29</v>
+      </c>
+      <c r="EC104" t="s">
+        <v>307</v>
+      </c>
+      <c r="EE104" t="s">
+        <v>308</v>
+      </c>
+      <c r="EG104">
+        <v>465.08</v>
+      </c>
+      <c r="EH104">
+        <v>84.62</v>
+      </c>
+      <c r="EK104">
+        <v>127.9</v>
+      </c>
+      <c r="EM104">
+        <v>49.75</v>
+      </c>
+      <c r="EO104">
+        <v>42.55</v>
+      </c>
+      <c r="EQ104">
+        <v>40.43</v>
+      </c>
+      <c r="ES104">
+        <v>48.08</v>
+      </c>
+      <c r="EU104">
+        <v>58.89</v>
+      </c>
+      <c r="EW104">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>487</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105">
+        <v>1543712531</v>
+      </c>
+      <c r="F105" t="s">
+        <v>488</v>
+      </c>
+      <c r="G105" t="s">
+        <v>487</v>
+      </c>
+      <c r="H105" t="s">
+        <v>339</v>
+      </c>
+      <c r="I105" t="s">
+        <v>489</v>
+      </c>
+      <c r="J105" t="s">
+        <v>113</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>4</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>4</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <v>3</v>
+      </c>
+      <c r="S105">
+        <v>4</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>4</v>
+      </c>
+      <c r="V105">
+        <v>4</v>
+      </c>
+      <c r="W105">
+        <v>4</v>
+      </c>
+      <c r="X105">
+        <v>4</v>
+      </c>
+      <c r="Y105">
+        <v>4</v>
+      </c>
+      <c r="Z105">
+        <v>3</v>
+      </c>
+      <c r="AA105">
+        <v>4</v>
+      </c>
+      <c r="AB105">
+        <v>3</v>
+      </c>
+      <c r="AC105">
+        <v>4</v>
+      </c>
+      <c r="AD105">
+        <v>3</v>
+      </c>
+      <c r="AE105">
+        <v>4</v>
+      </c>
+      <c r="AF105">
+        <v>4</v>
+      </c>
+      <c r="AG105">
+        <v>4</v>
+      </c>
+      <c r="AH105">
+        <v>5</v>
+      </c>
+      <c r="AI105">
+        <v>4</v>
+      </c>
+      <c r="AJ105">
+        <v>4</v>
+      </c>
+      <c r="AK105">
+        <v>4</v>
+      </c>
+      <c r="AL105">
+        <v>4</v>
+      </c>
+      <c r="AM105">
+        <v>4</v>
+      </c>
+      <c r="AN105">
+        <v>3</v>
+      </c>
+      <c r="AO105">
+        <v>4</v>
+      </c>
+      <c r="AP105">
+        <v>4</v>
+      </c>
+      <c r="AQ105">
+        <v>3</v>
+      </c>
+      <c r="AR105">
+        <v>4</v>
+      </c>
+      <c r="AS105">
+        <v>4</v>
+      </c>
+      <c r="AT105">
+        <v>4</v>
+      </c>
+      <c r="AU105">
+        <v>4</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>4</v>
+      </c>
+      <c r="AY105">
+        <v>2</v>
+      </c>
+      <c r="AZ105">
+        <v>3</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
+        <v>2</v>
+      </c>
+      <c r="BC105">
+        <v>3</v>
+      </c>
+      <c r="BD105">
+        <v>4</v>
+      </c>
+      <c r="BE105">
+        <v>4</v>
+      </c>
+      <c r="BF105">
+        <v>3</v>
+      </c>
+      <c r="BG105">
+        <v>4</v>
+      </c>
+      <c r="BH105">
+        <v>3</v>
+      </c>
+      <c r="BI105">
+        <v>4</v>
+      </c>
+      <c r="BJ105">
+        <v>4</v>
+      </c>
+      <c r="BK105">
+        <v>3</v>
+      </c>
+      <c r="BL105">
+        <v>4</v>
+      </c>
+      <c r="BM105">
+        <v>4</v>
+      </c>
+      <c r="BN105">
+        <v>3</v>
+      </c>
+      <c r="BO105">
+        <v>3</v>
+      </c>
+      <c r="BP105">
+        <v>3</v>
+      </c>
+      <c r="BQ105">
+        <v>3</v>
+      </c>
+      <c r="BR105">
+        <v>3</v>
+      </c>
+      <c r="BS105">
+        <v>3</v>
+      </c>
+      <c r="BT105">
+        <v>4</v>
+      </c>
+      <c r="BU105">
+        <v>4</v>
+      </c>
+      <c r="BV105">
+        <v>4</v>
+      </c>
+      <c r="BW105">
+        <v>4</v>
+      </c>
+      <c r="BX105">
+        <v>4</v>
+      </c>
+      <c r="BY105">
+        <v>4</v>
+      </c>
+      <c r="BZ105">
+        <v>4</v>
+      </c>
+      <c r="CA105">
+        <v>4</v>
+      </c>
+      <c r="CB105">
+        <v>3</v>
+      </c>
+      <c r="CC105">
+        <v>3</v>
+      </c>
+      <c r="CD105">
+        <v>2</v>
+      </c>
+      <c r="CE105">
+        <v>3</v>
+      </c>
+      <c r="CF105">
+        <v>3</v>
+      </c>
+      <c r="CG105">
+        <v>3</v>
+      </c>
+      <c r="CH105">
+        <v>4</v>
+      </c>
+      <c r="CI105">
+        <v>4</v>
+      </c>
+      <c r="CJ105">
+        <v>3</v>
+      </c>
+      <c r="CK105">
+        <v>4</v>
+      </c>
+      <c r="CL105">
+        <v>3</v>
+      </c>
+      <c r="CM105">
+        <v>1</v>
+      </c>
+      <c r="CN105">
+        <v>3</v>
+      </c>
+      <c r="CO105">
+        <v>4</v>
+      </c>
+      <c r="CP105">
+        <v>1</v>
+      </c>
+      <c r="CQ105">
+        <v>4</v>
+      </c>
+      <c r="CR105">
+        <v>1</v>
+      </c>
+      <c r="CS105">
+        <v>4</v>
+      </c>
+      <c r="CT105">
+        <v>3</v>
+      </c>
+      <c r="CU105">
+        <v>3</v>
+      </c>
+      <c r="CV105">
+        <v>3</v>
+      </c>
+      <c r="CW105">
+        <v>3</v>
+      </c>
+      <c r="CX105">
+        <v>2</v>
+      </c>
+      <c r="CY105">
+        <v>3</v>
+      </c>
+      <c r="CZ105">
+        <v>3</v>
+      </c>
+      <c r="DA105">
+        <v>3</v>
+      </c>
+      <c r="DB105">
+        <v>3</v>
+      </c>
+      <c r="DC105">
+        <v>4</v>
+      </c>
+      <c r="DD105">
+        <v>3</v>
+      </c>
+      <c r="DE105">
+        <v>3</v>
+      </c>
+      <c r="DF105">
+        <v>4</v>
+      </c>
+      <c r="DG105">
+        <v>1</v>
+      </c>
+      <c r="DH105">
+        <v>1</v>
+      </c>
+      <c r="DI105">
+        <v>2</v>
+      </c>
+      <c r="DJ105">
+        <v>1</v>
+      </c>
+      <c r="DK105">
+        <v>1</v>
+      </c>
+      <c r="DL105">
+        <v>1</v>
+      </c>
+      <c r="DM105">
+        <v>3</v>
+      </c>
+      <c r="DN105">
+        <v>1</v>
+      </c>
+      <c r="DO105">
+        <v>3</v>
+      </c>
+      <c r="DP105">
+        <v>3</v>
+      </c>
+      <c r="DQ105">
+        <v>2</v>
+      </c>
+      <c r="DR105">
+        <v>3</v>
+      </c>
+      <c r="DS105">
+        <v>2</v>
+      </c>
+      <c r="DT105">
+        <v>3</v>
+      </c>
+      <c r="DU105">
+        <v>3</v>
+      </c>
+      <c r="DV105">
+        <v>3</v>
+      </c>
+      <c r="DW105">
+        <v>1</v>
+      </c>
+      <c r="DX105">
+        <v>3</v>
+      </c>
+      <c r="DY105">
+        <v>1</v>
+      </c>
+      <c r="DZ105">
+        <v>3</v>
+      </c>
+      <c r="EA105" t="s">
+        <v>309</v>
+      </c>
+      <c r="EB105">
+        <v>26</v>
+      </c>
+      <c r="EC105" t="s">
+        <v>307</v>
+      </c>
+      <c r="EE105" t="s">
+        <v>314</v>
+      </c>
+      <c r="EG105">
+        <v>536.36</v>
+      </c>
+      <c r="EH105">
+        <v>129.91999999999999</v>
+      </c>
+      <c r="EK105">
+        <v>61.51</v>
+      </c>
+      <c r="EM105">
+        <v>46.42</v>
+      </c>
+      <c r="EO105">
+        <v>70.16</v>
+      </c>
+      <c r="EQ105">
+        <v>69.16</v>
+      </c>
+      <c r="ES105">
+        <v>78.22</v>
+      </c>
+      <c r="EU105">
+        <v>62.47</v>
+      </c>
+      <c r="EW105">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:153" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>490</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106">
+        <v>1670764455</v>
+      </c>
+      <c r="F106" t="s">
+        <v>491</v>
+      </c>
+      <c r="G106" t="s">
+        <v>490</v>
+      </c>
+      <c r="H106" t="s">
+        <v>339</v>
+      </c>
+      <c r="I106" t="s">
+        <v>492</v>
+      </c>
+      <c r="J106" t="s">
+        <v>113</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106">
+        <v>2</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>3</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+      <c r="W106">
+        <v>3</v>
+      </c>
+      <c r="X106">
+        <v>1</v>
+      </c>
+      <c r="Y106">
+        <v>1</v>
+      </c>
+      <c r="Z106">
+        <v>2</v>
+      </c>
+      <c r="AA106">
+        <v>3</v>
+      </c>
+      <c r="AB106">
+        <v>3</v>
+      </c>
+      <c r="AC106">
+        <v>1</v>
+      </c>
+      <c r="AD106">
+        <v>3</v>
+      </c>
+      <c r="AE106">
+        <v>3</v>
+      </c>
+      <c r="AF106">
+        <v>3</v>
+      </c>
+      <c r="AG106">
+        <v>2</v>
+      </c>
+      <c r="AH106">
+        <v>3</v>
+      </c>
+      <c r="AI106">
+        <v>4</v>
+      </c>
+      <c r="AJ106">
+        <v>3</v>
+      </c>
+      <c r="AK106">
+        <v>3</v>
+      </c>
+      <c r="AL106">
+        <v>3</v>
+      </c>
+      <c r="AM106">
+        <v>4</v>
+      </c>
+      <c r="AN106">
+        <v>4</v>
+      </c>
+      <c r="AO106">
+        <v>3</v>
+      </c>
+      <c r="AP106">
+        <v>2</v>
+      </c>
+      <c r="AQ106">
+        <v>2</v>
+      </c>
+      <c r="AR106">
+        <v>3</v>
+      </c>
+      <c r="AS106">
+        <v>3</v>
+      </c>
+      <c r="AT106">
+        <v>3</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
+        <v>3</v>
+      </c>
+      <c r="AY106">
+        <v>3</v>
+      </c>
+      <c r="AZ106">
+        <v>3</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
+        <v>2</v>
+      </c>
+      <c r="BD106">
+        <v>3</v>
+      </c>
+      <c r="BE106">
+        <v>3</v>
+      </c>
+      <c r="BF106">
+        <v>3</v>
+      </c>
+      <c r="BG106">
+        <v>4</v>
+      </c>
+      <c r="BH106">
+        <v>4</v>
+      </c>
+      <c r="BI106">
+        <v>4</v>
+      </c>
+      <c r="BJ106">
+        <v>2</v>
+      </c>
+      <c r="BK106">
+        <v>2</v>
+      </c>
+      <c r="BL106">
+        <v>3</v>
+      </c>
+      <c r="BM106">
+        <v>3</v>
+      </c>
+      <c r="BN106">
+        <v>3</v>
+      </c>
+      <c r="BO106">
+        <v>3</v>
+      </c>
+      <c r="BP106">
+        <v>2</v>
+      </c>
+      <c r="BQ106">
+        <v>3</v>
+      </c>
+      <c r="BR106">
+        <v>2</v>
+      </c>
+      <c r="BS106">
+        <v>3</v>
+      </c>
+      <c r="BT106">
+        <v>3</v>
+      </c>
+      <c r="BU106">
+        <v>3</v>
+      </c>
+      <c r="BV106">
+        <v>3</v>
+      </c>
+      <c r="BW106">
+        <v>3</v>
+      </c>
+      <c r="BX106">
+        <v>2</v>
+      </c>
+      <c r="BY106">
+        <v>2</v>
+      </c>
+      <c r="BZ106">
+        <v>3</v>
+      </c>
+      <c r="CA106">
+        <v>2</v>
+      </c>
+      <c r="CB106">
+        <v>2</v>
+      </c>
+      <c r="CC106">
+        <v>3</v>
+      </c>
+      <c r="CD106">
+        <v>3</v>
+      </c>
+      <c r="CE106">
+        <v>3</v>
+      </c>
+      <c r="CF106">
+        <v>3</v>
+      </c>
+      <c r="CG106">
+        <v>3</v>
+      </c>
+      <c r="CH106">
+        <v>3</v>
+      </c>
+      <c r="CI106">
+        <v>3</v>
+      </c>
+      <c r="CJ106">
+        <v>3</v>
+      </c>
+      <c r="CK106">
+        <v>3</v>
+      </c>
+      <c r="CL106">
+        <v>3</v>
+      </c>
+      <c r="CM106">
+        <v>3</v>
+      </c>
+      <c r="CN106">
+        <v>5</v>
+      </c>
+      <c r="CO106">
+        <v>1</v>
+      </c>
+      <c r="CP106">
+        <v>2</v>
+      </c>
+      <c r="CQ106">
+        <v>1</v>
+      </c>
+      <c r="CR106">
+        <v>1</v>
+      </c>
+      <c r="CS106">
+        <v>1</v>
+      </c>
+      <c r="CT106">
+        <v>3</v>
+      </c>
+      <c r="CU106">
+        <v>3</v>
+      </c>
+      <c r="CV106">
+        <v>1</v>
+      </c>
+      <c r="CW106">
+        <v>1</v>
+      </c>
+      <c r="CX106">
+        <v>3</v>
+      </c>
+      <c r="CY106">
+        <v>3</v>
+      </c>
+      <c r="CZ106">
+        <v>1</v>
+      </c>
+      <c r="DA106">
+        <v>1</v>
+      </c>
+      <c r="DB106">
+        <v>1</v>
+      </c>
+      <c r="DC106">
+        <v>1</v>
+      </c>
+      <c r="DD106">
+        <v>1</v>
+      </c>
+      <c r="DE106">
+        <v>1</v>
+      </c>
+      <c r="DF106">
+        <v>3</v>
+      </c>
+      <c r="DG106">
+        <v>3</v>
+      </c>
+      <c r="DH106">
+        <v>1</v>
+      </c>
+      <c r="DI106">
+        <v>3</v>
+      </c>
+      <c r="DJ106">
+        <v>2</v>
+      </c>
+      <c r="DK106">
+        <v>3</v>
+      </c>
+      <c r="DL106">
+        <v>3</v>
+      </c>
+      <c r="DM106">
+        <v>3</v>
+      </c>
+      <c r="DN106">
+        <v>2</v>
+      </c>
+      <c r="DO106">
+        <v>4</v>
+      </c>
+      <c r="DP106">
+        <v>3</v>
+      </c>
+      <c r="DQ106">
+        <v>5</v>
+      </c>
+      <c r="DR106">
+        <v>4</v>
+      </c>
+      <c r="DS106">
+        <v>4</v>
+      </c>
+      <c r="DT106">
+        <v>4</v>
+      </c>
+      <c r="DU106">
+        <v>4</v>
+      </c>
+      <c r="DV106">
+        <v>4</v>
+      </c>
+      <c r="DW106">
+        <v>4</v>
+      </c>
+      <c r="DX106">
+        <v>2</v>
+      </c>
+      <c r="DY106">
+        <v>4</v>
+      </c>
+      <c r="DZ106">
+        <v>2</v>
+      </c>
+      <c r="EA106" t="s">
+        <v>312</v>
+      </c>
+      <c r="EB106">
+        <v>40</v>
+      </c>
+      <c r="EC106" t="s">
+        <v>305</v>
+      </c>
+      <c r="EE106" t="s">
+        <v>308</v>
+      </c>
+      <c r="EG106">
+        <v>321.51</v>
+      </c>
+      <c r="EH106">
+        <v>26.79</v>
+      </c>
+      <c r="EK106">
+        <v>42.75</v>
+      </c>
+      <c r="EM106">
+        <v>50.8</v>
+      </c>
+      <c r="EO106">
+        <v>52.39</v>
+      </c>
+      <c r="EQ106">
+        <v>47.69</v>
+      </c>
+      <c r="ES106">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="EU106">
+        <v>44.23</v>
+      </c>
+      <c r="EW106">
+        <v>16.38</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:EY78" xr:uid="{35A8901A-F034-4C42-B93D-092A0FE1729B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:EY57">
